--- a/datas/fichier.xlsx
+++ b/datas/fichier.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2686" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2687" uniqueCount="221">
   <si>
     <t xml:space="preserve">N DE PRIX:001</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t xml:space="preserve">H/J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">œuvre</t>
   </si>
   <si>
     <t xml:space="preserve">Ferailleur</t>
@@ -1216,10 +1219,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1893"/>
+  <dimension ref="A1:M1893"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M36" activeCellId="0" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1765,10 +1768,13 @@
       <c r="E36" s="23" t="n">
         <v>260000</v>
       </c>
+      <c r="M36" s="0" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B37" s="22" t="s">
         <v>44</v>
@@ -1781,7 +1787,7 @@
     </row>
     <row r="38" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" s="22" t="s">
         <v>44</v>
@@ -1794,7 +1800,7 @@
     </row>
     <row r="39" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B39" s="22" t="s">
         <v>44</v>
@@ -1807,7 +1813,7 @@
     </row>
     <row r="40" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B40" s="22" t="s">
         <v>44</v>
@@ -1820,7 +1826,7 @@
     </row>
     <row r="41" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B41" s="22" t="s">
         <v>44</v>
@@ -1833,7 +1839,7 @@
     </row>
     <row r="42" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B42" s="22" t="s">
         <v>44</v>
@@ -1850,7 +1856,7 @@
     </row>
     <row r="43" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="19"/>
@@ -1861,13 +1867,13 @@
     </row>
     <row r="44" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B44" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D44" s="26"/>
       <c r="E44" s="27" t="n">
@@ -1876,7 +1882,7 @@
     </row>
     <row r="45" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B45" s="28" t="n">
         <v>1</v>
@@ -1901,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -2025,7 +2031,7 @@
     </row>
     <row r="60" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B60" s="22" t="s">
         <v>12</v>
@@ -2042,7 +2048,7 @@
     </row>
     <row r="61" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B61" s="22" t="s">
         <v>12</v>
@@ -2096,7 +2102,7 @@
     </row>
     <row r="65" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B65" s="22" t="s">
         <v>44</v>
@@ -2109,7 +2115,7 @@
     </row>
     <row r="66" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B66" s="22" t="s">
         <v>44</v>
@@ -2122,7 +2128,7 @@
     </row>
     <row r="67" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B67" s="22" t="s">
         <v>44</v>
@@ -2135,7 +2141,7 @@
     </row>
     <row r="68" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B68" s="22" t="s">
         <v>44</v>
@@ -2148,7 +2154,7 @@
     </row>
     <row r="69" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B69" s="22" t="s">
         <v>44</v>
@@ -2161,7 +2167,7 @@
     </row>
     <row r="70" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B70" s="22" t="s">
         <v>44</v>
@@ -2178,7 +2184,7 @@
     </row>
     <row r="71" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B71" s="5"/>
       <c r="C71" s="19"/>
@@ -2189,13 +2195,13 @@
     </row>
     <row r="72" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B72" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D72" s="26"/>
       <c r="E72" s="27" t="n">
@@ -2204,7 +2210,7 @@
     </row>
     <row r="73" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B73" s="28" t="n">
         <v>1</v>
@@ -2229,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -2353,7 +2359,7 @@
     </row>
     <row r="88" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B88" s="22" t="s">
         <v>12</v>
@@ -2370,7 +2376,7 @@
     </row>
     <row r="89" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B89" s="22" t="s">
         <v>12</v>
@@ -2407,7 +2413,7 @@
     </row>
     <row r="92" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B92" s="22" t="s">
         <v>44</v>
@@ -2424,7 +2430,7 @@
     </row>
     <row r="93" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B93" s="22" t="s">
         <v>44</v>
@@ -2437,7 +2443,7 @@
     </row>
     <row r="94" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B94" s="22" t="s">
         <v>44</v>
@@ -2450,7 +2456,7 @@
     </row>
     <row r="95" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B95" s="22" t="s">
         <v>44</v>
@@ -2463,7 +2469,7 @@
     </row>
     <row r="96" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B96" s="22" t="s">
         <v>44</v>
@@ -2476,7 +2482,7 @@
     </row>
     <row r="97" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B97" s="22" t="s">
         <v>44</v>
@@ -2489,7 +2495,7 @@
     </row>
     <row r="98" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B98" s="22" t="s">
         <v>44</v>
@@ -2506,7 +2512,7 @@
     </row>
     <row r="99" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B99" s="5"/>
       <c r="C99" s="19"/>
@@ -2517,13 +2523,13 @@
     </row>
     <row r="100" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B100" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C100" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D100" s="26"/>
       <c r="E100" s="27" t="n">
@@ -2532,7 +2538,7 @@
     </row>
     <row r="101" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B101" s="28" t="n">
         <v>1</v>
@@ -2564,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -2688,7 +2694,7 @@
     </row>
     <row r="117" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B117" s="22" t="s">
         <v>14</v>
@@ -2759,7 +2765,7 @@
     </row>
     <row r="122" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B122" s="22" t="s">
         <v>44</v>
@@ -2772,7 +2778,7 @@
     </row>
     <row r="123" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B123" s="22" t="s">
         <v>44</v>
@@ -2785,7 +2791,7 @@
     </row>
     <row r="124" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B124" s="22" t="s">
         <v>44</v>
@@ -2798,7 +2804,7 @@
     </row>
     <row r="125" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B125" s="22" t="s">
         <v>44</v>
@@ -2811,7 +2817,7 @@
     </row>
     <row r="126" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B126" s="22" t="s">
         <v>44</v>
@@ -2824,7 +2830,7 @@
     </row>
     <row r="127" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B127" s="22" t="s">
         <v>44</v>
@@ -2837,7 +2843,7 @@
     </row>
     <row r="128" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B128" s="5"/>
       <c r="C128" s="19"/>
@@ -2848,13 +2854,13 @@
     </row>
     <row r="129" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B129" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C129" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D129" s="26"/>
       <c r="E129" s="27" t="n">
@@ -2863,7 +2869,7 @@
     </row>
     <row r="130" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B130" s="28" t="n">
         <v>78.4</v>
@@ -2888,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
@@ -2929,10 +2935,10 @@
     </row>
     <row r="136" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C136" s="15" t="n">
         <v>68.25</v>
@@ -2946,10 +2952,10 @@
     </row>
     <row r="137" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C137" s="15" t="n">
         <v>0.364</v>
@@ -2963,10 +2969,10 @@
     </row>
     <row r="138" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B138" s="14" t="s">
         <v>67</v>
-      </c>
-      <c r="B138" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="C138" s="15" t="n">
         <v>0.2275</v>
@@ -3036,7 +3042,7 @@
     </row>
     <row r="145" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B145" s="22" t="s">
         <v>12</v>
@@ -3107,7 +3113,7 @@
     </row>
     <row r="150" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B150" s="22" t="s">
         <v>44</v>
@@ -3120,7 +3126,7 @@
     </row>
     <row r="151" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B151" s="22" t="s">
         <v>44</v>
@@ -3133,7 +3139,7 @@
     </row>
     <row r="152" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B152" s="22" t="s">
         <v>44</v>
@@ -3146,7 +3152,7 @@
     </row>
     <row r="153" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B153" s="22" t="s">
         <v>44</v>
@@ -3159,7 +3165,7 @@
     </row>
     <row r="154" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B154" s="22" t="s">
         <v>44</v>
@@ -3172,7 +3178,7 @@
     </row>
     <row r="155" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B155" s="22" t="s">
         <v>44</v>
@@ -3185,7 +3191,7 @@
     </row>
     <row r="156" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B156" s="5"/>
       <c r="C156" s="19"/>
@@ -3196,13 +3202,13 @@
     </row>
     <row r="157" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B157" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C157" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D157" s="26"/>
       <c r="E157" s="27" t="n">
@@ -3211,7 +3217,7 @@
     </row>
     <row r="158" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B158" s="28" t="n">
         <v>0.455</v>
@@ -3236,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -3277,10 +3283,10 @@
     </row>
     <row r="164" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C164" s="15" t="n">
         <v>620</v>
@@ -3294,10 +3300,10 @@
     </row>
     <row r="165" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C165" s="15" t="n">
         <v>2.48</v>
@@ -3311,10 +3317,10 @@
     </row>
     <row r="166" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B166" s="14" t="s">
         <v>67</v>
-      </c>
-      <c r="B166" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="C166" s="15" t="n">
         <v>1.55</v>
@@ -3384,7 +3390,7 @@
     </row>
     <row r="173" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B173" s="22" t="s">
         <v>12</v>
@@ -3455,7 +3461,7 @@
     </row>
     <row r="178" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B178" s="22" t="s">
         <v>44</v>
@@ -3468,7 +3474,7 @@
     </row>
     <row r="179" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B179" s="22" t="s">
         <v>44</v>
@@ -3481,7 +3487,7 @@
     </row>
     <row r="180" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B180" s="22" t="s">
         <v>44</v>
@@ -3494,7 +3500,7 @@
     </row>
     <row r="181" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B181" s="22" t="s">
         <v>44</v>
@@ -3507,7 +3513,7 @@
     </row>
     <row r="182" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B182" s="22" t="s">
         <v>44</v>
@@ -3520,7 +3526,7 @@
     </row>
     <row r="183" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B183" s="22" t="s">
         <v>44</v>
@@ -3533,7 +3539,7 @@
     </row>
     <row r="184" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B184" s="5"/>
       <c r="C184" s="19"/>
@@ -3544,13 +3550,13 @@
     </row>
     <row r="185" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B185" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C185" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D185" s="26"/>
       <c r="E185" s="27" t="n">
@@ -3559,7 +3565,7 @@
     </row>
     <row r="186" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B186" s="28" t="n">
         <v>3.1</v>
@@ -3598,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
@@ -3639,7 +3645,7 @@
     </row>
     <row r="194" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B194" s="14" t="s">
         <v>10</v>
@@ -3730,7 +3736,7 @@
     </row>
     <row r="203" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B203" s="22" t="s">
         <v>14</v>
@@ -3797,7 +3803,7 @@
     </row>
     <row r="208" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B208" s="22" t="s">
         <v>44</v>
@@ -3810,7 +3816,7 @@
     </row>
     <row r="209" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B209" s="22" t="s">
         <v>44</v>
@@ -3823,7 +3829,7 @@
     </row>
     <row r="210" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B210" s="22" t="s">
         <v>44</v>
@@ -3836,7 +3842,7 @@
     </row>
     <row r="211" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B211" s="22" t="s">
         <v>44</v>
@@ -3849,7 +3855,7 @@
     </row>
     <row r="212" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B212" s="22" t="s">
         <v>44</v>
@@ -3862,7 +3868,7 @@
     </row>
     <row r="213" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B213" s="22" t="s">
         <v>44</v>
@@ -3875,7 +3881,7 @@
     </row>
     <row r="214" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B214" s="5"/>
       <c r="C214" s="19"/>
@@ -3886,13 +3892,13 @@
     </row>
     <row r="215" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B215" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C215" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D215" s="26"/>
       <c r="E215" s="27" t="n">
@@ -3901,7 +3907,7 @@
     </row>
     <row r="216" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B216" s="28" t="n">
         <v>2.6</v>
@@ -3940,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
@@ -3981,10 +3987,10 @@
     </row>
     <row r="224" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B224" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C224" s="15" t="n">
         <v>260</v>
@@ -3998,10 +4004,10 @@
     </row>
     <row r="225" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B225" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C225" s="15" t="n">
         <v>0.832</v>
@@ -4015,10 +4021,10 @@
     </row>
     <row r="226" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B226" s="14" t="s">
         <v>67</v>
-      </c>
-      <c r="B226" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="C226" s="15" t="n">
         <v>0.52</v>
@@ -4088,7 +4094,7 @@
     </row>
     <row r="233" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B233" s="22" t="s">
         <v>12</v>
@@ -4159,7 +4165,7 @@
     </row>
     <row r="238" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B238" s="22" t="s">
         <v>44</v>
@@ -4172,7 +4178,7 @@
     </row>
     <row r="239" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B239" s="22" t="s">
         <v>44</v>
@@ -4185,7 +4191,7 @@
     </row>
     <row r="240" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B240" s="22" t="s">
         <v>44</v>
@@ -4198,7 +4204,7 @@
     </row>
     <row r="241" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B241" s="22" t="s">
         <v>44</v>
@@ -4211,7 +4217,7 @@
     </row>
     <row r="242" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B242" s="22" t="s">
         <v>44</v>
@@ -4224,7 +4230,7 @@
     </row>
     <row r="243" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B243" s="22" t="s">
         <v>44</v>
@@ -4237,7 +4243,7 @@
     </row>
     <row r="244" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B244" s="5"/>
       <c r="C244" s="19"/>
@@ -4248,13 +4254,13 @@
     </row>
     <row r="245" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B245" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C245" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D245" s="26"/>
       <c r="E245" s="27" t="n">
@@ -4263,7 +4269,7 @@
     </row>
     <row r="246" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B246" s="28" t="n">
         <v>1.04</v>
@@ -4288,7 +4294,7 @@
         <v>0</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
@@ -4329,10 +4335,10 @@
     </row>
     <row r="252" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B252" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C252" s="15" t="n">
         <v>6149.5</v>
@@ -4346,10 +4352,10 @@
     </row>
     <row r="253" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B253" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C253" s="15" t="n">
         <v>14.056</v>
@@ -4363,10 +4369,10 @@
     </row>
     <row r="254" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B254" s="14" t="s">
         <v>67</v>
-      </c>
-      <c r="B254" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="C254" s="15" t="n">
         <v>8.785</v>
@@ -4427,7 +4433,7 @@
     </row>
     <row r="260" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B260" s="22" t="s">
         <v>14</v>
@@ -4498,7 +4504,7 @@
     </row>
     <row r="265" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B265" s="22" t="s">
         <v>44</v>
@@ -4511,7 +4517,7 @@
     </row>
     <row r="266" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B266" s="22" t="s">
         <v>44</v>
@@ -4524,7 +4530,7 @@
     </row>
     <row r="267" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B267" s="22" t="s">
         <v>44</v>
@@ -4537,7 +4543,7 @@
     </row>
     <row r="268" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B268" s="22" t="s">
         <v>44</v>
@@ -4550,7 +4556,7 @@
     </row>
     <row r="269" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B269" s="22" t="s">
         <v>44</v>
@@ -4563,7 +4569,7 @@
     </row>
     <row r="270" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B270" s="22" t="s">
         <v>44</v>
@@ -4576,7 +4582,7 @@
     </row>
     <row r="271" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B271" s="5"/>
       <c r="C271" s="19"/>
@@ -4587,13 +4593,13 @@
     </row>
     <row r="272" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B272" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C272" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D272" s="26"/>
       <c r="E272" s="27" t="n">
@@ -4602,7 +4608,7 @@
     </row>
     <row r="273" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B273" s="28" t="n">
         <v>17.57</v>
@@ -4627,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
@@ -4668,10 +4674,10 @@
     </row>
     <row r="279" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B279" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C279" s="15" t="n">
         <v>1428.364</v>
@@ -4685,7 +4691,7 @@
     </row>
     <row r="280" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B280" s="14" t="s">
         <v>12</v>
@@ -4767,7 +4773,7 @@
     </row>
     <row r="288" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B288" s="22" t="s">
         <v>38</v>
@@ -4838,7 +4844,7 @@
     </row>
     <row r="293" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B293" s="22" t="s">
         <v>44</v>
@@ -4851,7 +4857,7 @@
     </row>
     <row r="294" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B294" s="22" t="s">
         <v>44</v>
@@ -4864,7 +4870,7 @@
     </row>
     <row r="295" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B295" s="22" t="s">
         <v>44</v>
@@ -4877,7 +4883,7 @@
     </row>
     <row r="296" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B296" s="22" t="s">
         <v>44</v>
@@ -4890,7 +4896,7 @@
     </row>
     <row r="297" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B297" s="22" t="s">
         <v>44</v>
@@ -4903,7 +4909,7 @@
     </row>
     <row r="298" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B298" s="22" t="s">
         <v>44</v>
@@ -4916,7 +4922,7 @@
     </row>
     <row r="299" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B299" s="5"/>
       <c r="C299" s="19"/>
@@ -4927,13 +4933,13 @@
     </row>
     <row r="300" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B300" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C300" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D300" s="26"/>
       <c r="E300" s="27" t="n">
@@ -4942,7 +4948,7 @@
     </row>
     <row r="301" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B301" s="28" t="n">
         <v>1428.364</v>
@@ -4981,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
@@ -5022,7 +5028,7 @@
     </row>
     <row r="309" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B309" s="14" t="s">
         <v>10</v>
@@ -5039,7 +5045,7 @@
     </row>
     <row r="310" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B310" s="14" t="s">
         <v>12</v>
@@ -5056,10 +5062,10 @@
     </row>
     <row r="311" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B311" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C311" s="15" t="n">
         <v>45.9192</v>
@@ -5129,7 +5135,7 @@
     </row>
     <row r="318" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B318" s="22" t="s">
         <v>14</v>
@@ -5183,7 +5189,7 @@
     </row>
     <row r="322" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B322" s="22" t="s">
         <v>44</v>
@@ -5200,7 +5206,7 @@
     </row>
     <row r="323" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B323" s="22" t="s">
         <v>44</v>
@@ -5213,7 +5219,7 @@
     </row>
     <row r="324" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B324" s="22" t="s">
         <v>44</v>
@@ -5226,7 +5232,7 @@
     </row>
     <row r="325" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B325" s="22" t="s">
         <v>44</v>
@@ -5239,7 +5245,7 @@
     </row>
     <row r="326" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B326" s="22" t="s">
         <v>44</v>
@@ -5252,7 +5258,7 @@
     </row>
     <row r="327" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B327" s="22" t="s">
         <v>44</v>
@@ -5265,7 +5271,7 @@
     </row>
     <row r="328" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B328" s="22" t="s">
         <v>44</v>
@@ -5278,7 +5284,7 @@
     </row>
     <row r="329" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B329" s="5"/>
       <c r="C329" s="19"/>
@@ -5289,13 +5295,13 @@
     </row>
     <row r="330" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B330" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C330" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D330" s="26"/>
       <c r="E330" s="27" t="n">
@@ -5304,7 +5310,7 @@
     </row>
     <row r="331" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B331" s="28" t="n">
         <v>306.128</v>
@@ -5329,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
@@ -5370,10 +5376,10 @@
     </row>
     <row r="337" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B337" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C337" s="15" t="n">
         <v>18</v>
@@ -5461,7 +5467,7 @@
     </row>
     <row r="346" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B346" s="22" t="s">
         <v>14</v>
@@ -5507,7 +5513,7 @@
     </row>
     <row r="350" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B350" s="22" t="s">
         <v>44</v>
@@ -5524,7 +5530,7 @@
     </row>
     <row r="351" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B351" s="22" t="s">
         <v>44</v>
@@ -5537,7 +5543,7 @@
     </row>
     <row r="352" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B352" s="22" t="s">
         <v>44</v>
@@ -5550,7 +5556,7 @@
     </row>
     <row r="353" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B353" s="22" t="s">
         <v>44</v>
@@ -5563,7 +5569,7 @@
     </row>
     <row r="354" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B354" s="22" t="s">
         <v>44</v>
@@ -5576,7 +5582,7 @@
     </row>
     <row r="355" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B355" s="22" t="s">
         <v>44</v>
@@ -5589,7 +5595,7 @@
     </row>
     <row r="356" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B356" s="22" t="s">
         <v>44</v>
@@ -5602,7 +5608,7 @@
     </row>
     <row r="357" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B357" s="5"/>
       <c r="C357" s="19"/>
@@ -5613,13 +5619,13 @@
     </row>
     <row r="358" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B358" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C358" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D358" s="26"/>
       <c r="E358" s="27" t="n">
@@ -5628,7 +5634,7 @@
     </row>
     <row r="359" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B359" s="28" t="n">
         <v>18</v>
@@ -5660,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
@@ -5701,7 +5707,7 @@
     </row>
     <row r="366" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B366" s="14" t="s">
         <v>10</v>
@@ -5718,10 +5724,10 @@
     </row>
     <row r="367" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B367" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C367" s="15" t="n">
         <v>1124.64</v>
@@ -5735,10 +5741,10 @@
     </row>
     <row r="368" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B368" s="14" t="s">
         <v>67</v>
-      </c>
-      <c r="B368" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="C368" s="15" t="n">
         <v>3.5784</v>
@@ -5853,7 +5859,7 @@
     </row>
     <row r="380" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B380" s="22" t="s">
         <v>14</v>
@@ -5907,7 +5913,7 @@
     </row>
     <row r="384" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B384" s="22" t="s">
         <v>44</v>
@@ -5924,7 +5930,7 @@
     </row>
     <row r="385" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B385" s="22" t="s">
         <v>44</v>
@@ -5937,7 +5943,7 @@
     </row>
     <row r="386" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B386" s="22" t="s">
         <v>44</v>
@@ -5950,7 +5956,7 @@
     </row>
     <row r="387" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B387" s="22" t="s">
         <v>44</v>
@@ -5963,7 +5969,7 @@
     </row>
     <row r="388" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B388" s="22" t="s">
         <v>44</v>
@@ -5976,7 +5982,7 @@
     </row>
     <row r="389" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B389" s="22" t="s">
         <v>44</v>
@@ -5989,7 +5995,7 @@
     </row>
     <row r="390" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B390" s="22" t="s">
         <v>44</v>
@@ -6002,7 +6008,7 @@
     </row>
     <row r="391" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B391" s="5"/>
       <c r="C391" s="19"/>
@@ -6013,13 +6019,13 @@
     </row>
     <row r="392" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B392" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C392" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D392" s="26"/>
       <c r="E392" s="27" t="n">
@@ -6028,7 +6034,7 @@
     </row>
     <row r="393" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B393" s="28" t="n">
         <v>102.24</v>
@@ -6053,7 +6059,7 @@
         <v>0</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C395" s="2"/>
       <c r="D395" s="2"/>
@@ -6094,7 +6100,7 @@
     </row>
     <row r="399" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B399" s="14" t="s">
         <v>10</v>
@@ -6111,10 +6117,10 @@
     </row>
     <row r="400" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B400" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C400" s="15" t="n">
         <v>162</v>
@@ -6128,10 +6134,10 @@
     </row>
     <row r="401" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B401" s="14" t="s">
         <v>67</v>
-      </c>
-      <c r="B401" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="C401" s="15" t="n">
         <v>0.54</v>
@@ -6246,7 +6252,7 @@
     </row>
     <row r="413" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B413" s="22" t="s">
         <v>14</v>
@@ -6300,7 +6306,7 @@
     </row>
     <row r="417" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B417" s="22" t="s">
         <v>44</v>
@@ -6317,7 +6323,7 @@
     </row>
     <row r="418" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B418" s="22" t="s">
         <v>44</v>
@@ -6330,7 +6336,7 @@
     </row>
     <row r="419" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B419" s="22" t="s">
         <v>44</v>
@@ -6343,7 +6349,7 @@
     </row>
     <row r="420" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B420" s="22" t="s">
         <v>44</v>
@@ -6356,7 +6362,7 @@
     </row>
     <row r="421" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B421" s="22" t="s">
         <v>44</v>
@@ -6369,7 +6375,7 @@
     </row>
     <row r="422" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B422" s="22" t="s">
         <v>44</v>
@@ -6382,7 +6388,7 @@
     </row>
     <row r="423" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B423" s="22" t="s">
         <v>44</v>
@@ -6395,7 +6401,7 @@
     </row>
     <row r="424" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B424" s="5"/>
       <c r="C424" s="19"/>
@@ -6406,13 +6412,13 @@
     </row>
     <row r="425" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B425" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C425" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D425" s="26"/>
       <c r="E425" s="27" t="n">
@@ -6421,7 +6427,7 @@
     </row>
     <row r="426" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B426" s="28" t="n">
         <v>18</v>
@@ -6474,7 +6480,7 @@
         <v>0</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C432" s="2"/>
       <c r="D432" s="2"/>
@@ -6515,7 +6521,7 @@
     </row>
     <row r="436" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B436" s="14" t="s">
         <v>10</v>
@@ -6532,10 +6538,10 @@
     </row>
     <row r="437" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B437" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C437" s="15" t="n">
         <v>9.6</v>
@@ -6549,10 +6555,10 @@
     </row>
     <row r="438" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B438" s="14" t="s">
         <v>67</v>
-      </c>
-      <c r="B438" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="C438" s="15" t="n">
         <v>0.024</v>
@@ -6622,7 +6628,7 @@
     </row>
     <row r="445" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B445" s="22" t="s">
         <v>14</v>
@@ -6672,7 +6678,7 @@
     </row>
     <row r="449" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B449" s="22" t="s">
         <v>44</v>
@@ -6689,7 +6695,7 @@
     </row>
     <row r="450" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B450" s="22" t="s">
         <v>44</v>
@@ -6702,7 +6708,7 @@
     </row>
     <row r="451" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B451" s="22" t="s">
         <v>44</v>
@@ -6715,7 +6721,7 @@
     </row>
     <row r="452" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B452" s="22" t="s">
         <v>44</v>
@@ -6728,7 +6734,7 @@
     </row>
     <row r="453" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B453" s="22" t="s">
         <v>44</v>
@@ -6741,7 +6747,7 @@
     </row>
     <row r="454" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B454" s="22" t="s">
         <v>44</v>
@@ -6754,7 +6760,7 @@
     </row>
     <row r="455" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B455" s="22" t="s">
         <v>44</v>
@@ -6767,7 +6773,7 @@
     </row>
     <row r="456" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B456" s="5"/>
       <c r="C456" s="19"/>
@@ -6778,13 +6784,13 @@
     </row>
     <row r="457" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B457" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C457" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D457" s="26"/>
       <c r="E457" s="27" t="n">
@@ -6793,7 +6799,7 @@
     </row>
     <row r="458" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B458" s="28" t="n">
         <v>0.8</v>
@@ -6818,7 +6824,7 @@
         <v>0</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C460" s="2"/>
       <c r="D460" s="2"/>
@@ -6859,10 +6865,10 @@
     </row>
     <row r="464" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B464" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C464" s="15" t="n">
         <v>1487.304</v>
@@ -6876,10 +6882,10 @@
     </row>
     <row r="465" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B465" s="14" t="s">
         <v>67</v>
-      </c>
-      <c r="B465" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="C465" s="15" t="n">
         <v>5.902</v>
@@ -6958,7 +6964,7 @@
     </row>
     <row r="473" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B473" s="22" t="s">
         <v>14</v>
@@ -7012,7 +7018,7 @@
     </row>
     <row r="477" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B477" s="22" t="s">
         <v>44</v>
@@ -7029,7 +7035,7 @@
     </row>
     <row r="478" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B478" s="22" t="s">
         <v>44</v>
@@ -7042,7 +7048,7 @@
     </row>
     <row r="479" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B479" s="22" t="s">
         <v>44</v>
@@ -7055,7 +7061,7 @@
     </row>
     <row r="480" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B480" s="22" t="s">
         <v>44</v>
@@ -7068,7 +7074,7 @@
     </row>
     <row r="481" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B481" s="22" t="s">
         <v>44</v>
@@ -7081,7 +7087,7 @@
     </row>
     <row r="482" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B482" s="22" t="s">
         <v>44</v>
@@ -7094,7 +7100,7 @@
     </row>
     <row r="483" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B483" s="22" t="s">
         <v>44</v>
@@ -7107,7 +7113,7 @@
     </row>
     <row r="484" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B484" s="5"/>
       <c r="C484" s="19"/>
@@ -7118,13 +7124,13 @@
     </row>
     <row r="485" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B485" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C485" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D485" s="26"/>
       <c r="E485" s="27" t="n">
@@ -7133,7 +7139,7 @@
     </row>
     <row r="486" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B486" s="28" t="n">
         <v>236.08</v>
@@ -7158,7 +7164,7 @@
         <v>0</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C488" s="2"/>
       <c r="D488" s="2"/>
@@ -7199,10 +7205,10 @@
     </row>
     <row r="492" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B492" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C492" s="15" t="n">
         <v>147.378</v>
@@ -7216,10 +7222,10 @@
     </row>
     <row r="493" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B493" s="14" t="s">
         <v>67</v>
-      </c>
-      <c r="B493" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="C493" s="15" t="n">
         <v>0.5742</v>
@@ -7298,7 +7304,7 @@
     </row>
     <row r="501" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B501" s="22" t="s">
         <v>14</v>
@@ -7352,7 +7358,7 @@
     </row>
     <row r="505" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B505" s="22" t="s">
         <v>44</v>
@@ -7369,7 +7375,7 @@
     </row>
     <row r="506" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B506" s="22" t="s">
         <v>44</v>
@@ -7382,7 +7388,7 @@
     </row>
     <row r="507" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B507" s="22" t="s">
         <v>44</v>
@@ -7395,7 +7401,7 @@
     </row>
     <row r="508" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B508" s="22" t="s">
         <v>44</v>
@@ -7408,7 +7414,7 @@
     </row>
     <row r="509" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B509" s="22" t="s">
         <v>44</v>
@@ -7421,7 +7427,7 @@
     </row>
     <row r="510" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B510" s="22" t="s">
         <v>44</v>
@@ -7434,7 +7440,7 @@
     </row>
     <row r="511" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B511" s="22" t="s">
         <v>44</v>
@@ -7447,7 +7453,7 @@
     </row>
     <row r="512" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B512" s="5"/>
       <c r="C512" s="19"/>
@@ -7458,13 +7464,13 @@
     </row>
     <row r="513" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B513" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C513" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D513" s="26"/>
       <c r="E513" s="27" t="n">
@@ -7473,7 +7479,7 @@
     </row>
     <row r="514" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B514" s="28" t="n">
         <v>19.14</v>
@@ -7498,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C516" s="2"/>
       <c r="D516" s="2"/>
@@ -7539,10 +7545,10 @@
     </row>
     <row r="520" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B520" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C520" s="15" t="n">
         <v>8</v>
@@ -7556,10 +7562,10 @@
     </row>
     <row r="521" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B521" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C521" s="15" t="n">
         <v>1.6</v>
@@ -7573,10 +7579,10 @@
     </row>
     <row r="522" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B522" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C522" s="15" t="n">
         <v>1</v>
@@ -7590,10 +7596,10 @@
     </row>
     <row r="523" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B523" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C523" s="15" t="n">
         <v>0.8</v>
@@ -7690,7 +7696,7 @@
     </row>
     <row r="533" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B533" s="22" t="s">
         <v>14</v>
@@ -7744,7 +7750,7 @@
     </row>
     <row r="537" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B537" s="22" t="s">
         <v>44</v>
@@ -7761,7 +7767,7 @@
     </row>
     <row r="538" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B538" s="22" t="s">
         <v>44</v>
@@ -7774,7 +7780,7 @@
     </row>
     <row r="539" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B539" s="22" t="s">
         <v>44</v>
@@ -7787,7 +7793,7 @@
     </row>
     <row r="540" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B540" s="22" t="s">
         <v>44</v>
@@ -7800,7 +7806,7 @@
     </row>
     <row r="541" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B541" s="22" t="s">
         <v>44</v>
@@ -7813,7 +7819,7 @@
     </row>
     <row r="542" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B542" s="22" t="s">
         <v>44</v>
@@ -7826,7 +7832,7 @@
     </row>
     <row r="543" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B543" s="22" t="s">
         <v>44</v>
@@ -7839,7 +7845,7 @@
     </row>
     <row r="544" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B544" s="5"/>
       <c r="C544" s="19"/>
@@ -7850,13 +7856,13 @@
     </row>
     <row r="545" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B545" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C545" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D545" s="26"/>
       <c r="E545" s="27" t="n">
@@ -7865,7 +7871,7 @@
     </row>
     <row r="546" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B546" s="28" t="n">
         <v>8</v>
@@ -7890,7 +7896,7 @@
         <v>0</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C548" s="2"/>
       <c r="D548" s="2"/>
@@ -7931,10 +7937,10 @@
     </row>
     <row r="552" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B552" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C552" s="15" t="n">
         <v>5.4</v>
@@ -7948,10 +7954,10 @@
     </row>
     <row r="553" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B553" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C553" s="15" t="n">
         <v>1.08</v>
@@ -7965,10 +7971,10 @@
     </row>
     <row r="554" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B554" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C554" s="15" t="n">
         <v>1</v>
@@ -7982,10 +7988,10 @@
     </row>
     <row r="555" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B555" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C555" s="15" t="n">
         <v>0.54</v>
@@ -8073,7 +8079,7 @@
     </row>
     <row r="564" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B564" s="22" t="s">
         <v>14</v>
@@ -8127,7 +8133,7 @@
     </row>
     <row r="568" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B568" s="22" t="s">
         <v>44</v>
@@ -8144,7 +8150,7 @@
     </row>
     <row r="569" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B569" s="22" t="s">
         <v>44</v>
@@ -8157,7 +8163,7 @@
     </row>
     <row r="570" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B570" s="22" t="s">
         <v>44</v>
@@ -8170,7 +8176,7 @@
     </row>
     <row r="571" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B571" s="22" t="s">
         <v>44</v>
@@ -8183,7 +8189,7 @@
     </row>
     <row r="572" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B572" s="22" t="s">
         <v>44</v>
@@ -8196,7 +8202,7 @@
     </row>
     <row r="573" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B573" s="22" t="s">
         <v>44</v>
@@ -8209,7 +8215,7 @@
     </row>
     <row r="574" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B574" s="22" t="s">
         <v>44</v>
@@ -8222,7 +8228,7 @@
     </row>
     <row r="575" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B575" s="5"/>
       <c r="C575" s="19"/>
@@ -8233,13 +8239,13 @@
     </row>
     <row r="576" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B576" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C576" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D576" s="26"/>
       <c r="E576" s="27" t="n">
@@ -8248,7 +8254,7 @@
     </row>
     <row r="577" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B577" s="28" t="n">
         <v>5.4</v>
@@ -8273,7 +8279,7 @@
         <v>0</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C579" s="2"/>
       <c r="D579" s="2"/>
@@ -8314,10 +8320,10 @@
     </row>
     <row r="583" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B583" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C583" s="15" t="n">
         <v>4</v>
@@ -8331,10 +8337,10 @@
     </row>
     <row r="584" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B584" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C584" s="15" t="n">
         <v>0.8</v>
@@ -8348,10 +8354,10 @@
     </row>
     <row r="585" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B585" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C585" s="15" t="n">
         <v>1</v>
@@ -8365,10 +8371,10 @@
     </row>
     <row r="586" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B586" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C586" s="15" t="n">
         <v>0.4</v>
@@ -8438,7 +8444,7 @@
     </row>
     <row r="593" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B593" s="22" t="s">
         <v>14</v>
@@ -8492,7 +8498,7 @@
     </row>
     <row r="597" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B597" s="22" t="s">
         <v>44</v>
@@ -8509,7 +8515,7 @@
     </row>
     <row r="598" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B598" s="22" t="s">
         <v>44</v>
@@ -8522,7 +8528,7 @@
     </row>
     <row r="599" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B599" s="22" t="s">
         <v>44</v>
@@ -8535,7 +8541,7 @@
     </row>
     <row r="600" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B600" s="22" t="s">
         <v>44</v>
@@ -8548,7 +8554,7 @@
     </row>
     <row r="601" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B601" s="22" t="s">
         <v>44</v>
@@ -8561,7 +8567,7 @@
     </row>
     <row r="602" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B602" s="22" t="s">
         <v>44</v>
@@ -8574,7 +8580,7 @@
     </row>
     <row r="603" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B603" s="22" t="s">
         <v>44</v>
@@ -8587,7 +8593,7 @@
     </row>
     <row r="604" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B604" s="5"/>
       <c r="C604" s="19"/>
@@ -8598,13 +8604,13 @@
     </row>
     <row r="605" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B605" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C605" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D605" s="26"/>
       <c r="E605" s="27" t="n">
@@ -8613,7 +8619,7 @@
     </row>
     <row r="606" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B606" s="28" t="n">
         <v>4</v>
@@ -8659,7 +8665,7 @@
         <v>0</v>
       </c>
       <c r="B611" s="33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C611" s="33"/>
       <c r="D611" s="33"/>
@@ -8700,10 +8706,10 @@
     </row>
     <row r="615" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B615" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C615" s="15" t="n">
         <v>1.32</v>
@@ -8717,10 +8723,10 @@
     </row>
     <row r="616" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B616" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C616" s="15" t="n">
         <v>0.264</v>
@@ -8734,10 +8740,10 @@
     </row>
     <row r="617" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B617" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C617" s="15" t="n">
         <v>0</v>
@@ -8751,10 +8757,10 @@
     </row>
     <row r="618" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B618" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C618" s="15" t="n">
         <v>0.132</v>
@@ -8842,7 +8848,7 @@
     </row>
     <row r="627" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B627" s="22" t="s">
         <v>14</v>
@@ -8896,7 +8902,7 @@
     </row>
     <row r="631" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B631" s="22" t="s">
         <v>44</v>
@@ -8913,7 +8919,7 @@
     </row>
     <row r="632" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B632" s="22" t="s">
         <v>44</v>
@@ -8926,7 +8932,7 @@
     </row>
     <row r="633" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B633" s="22" t="s">
         <v>44</v>
@@ -8939,7 +8945,7 @@
     </row>
     <row r="634" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B634" s="22" t="s">
         <v>44</v>
@@ -8952,7 +8958,7 @@
     </row>
     <row r="635" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B635" s="22" t="s">
         <v>44</v>
@@ -8965,7 +8971,7 @@
     </row>
     <row r="636" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B636" s="22" t="s">
         <v>44</v>
@@ -8978,7 +8984,7 @@
     </row>
     <row r="637" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B637" s="22" t="s">
         <v>44</v>
@@ -8991,7 +8997,7 @@
     </row>
     <row r="638" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B638" s="5"/>
       <c r="C638" s="19"/>
@@ -9002,13 +9008,13 @@
     </row>
     <row r="639" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B639" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C639" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D639" s="26"/>
       <c r="E639" s="27" t="n">
@@ -9017,7 +9023,7 @@
     </row>
     <row r="640" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B640" s="28" t="n">
         <v>11</v>
@@ -9042,7 +9048,7 @@
         <v>0</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C642" s="2"/>
       <c r="D642" s="2"/>
@@ -9083,7 +9089,7 @@
     </row>
     <row r="646" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B646" s="14" t="s">
         <v>10</v>
@@ -9100,7 +9106,7 @@
     </row>
     <row r="647" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B647" s="14" t="s">
         <v>10</v>
@@ -9117,7 +9123,7 @@
     </row>
     <row r="648" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B648" s="14" t="s">
         <v>10</v>
@@ -9134,7 +9140,7 @@
     </row>
     <row r="649" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B649" s="14" t="s">
         <v>10</v>
@@ -9151,7 +9157,7 @@
     </row>
     <row r="650" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B650" s="14" t="s">
         <v>10</v>
@@ -9168,7 +9174,7 @@
     </row>
     <row r="651" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B651" s="14" t="s">
         <v>10</v>
@@ -9185,7 +9191,7 @@
     </row>
     <row r="652" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B652" s="14" t="s">
         <v>10</v>
@@ -9202,7 +9208,7 @@
     </row>
     <row r="653" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B653" s="14" t="s">
         <v>10</v>
@@ -9239,7 +9245,7 @@
     </row>
     <row r="656" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B656" s="22" t="s">
         <v>14</v>
@@ -9293,7 +9299,7 @@
     </row>
     <row r="660" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B660" s="22" t="s">
         <v>44</v>
@@ -9310,7 +9316,7 @@
     </row>
     <row r="661" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B661" s="22" t="s">
         <v>44</v>
@@ -9323,7 +9329,7 @@
     </row>
     <row r="662" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B662" s="22" t="s">
         <v>44</v>
@@ -9336,7 +9342,7 @@
     </row>
     <row r="663" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B663" s="22" t="s">
         <v>44</v>
@@ -9349,7 +9355,7 @@
     </row>
     <row r="664" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B664" s="22" t="s">
         <v>44</v>
@@ -9362,7 +9368,7 @@
     </row>
     <row r="665" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B665" s="22" t="s">
         <v>44</v>
@@ -9375,7 +9381,7 @@
     </row>
     <row r="666" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B666" s="22" t="s">
         <v>44</v>
@@ -9388,7 +9394,7 @@
     </row>
     <row r="667" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B667" s="5"/>
       <c r="C667" s="19"/>
@@ -9399,13 +9405,13 @@
     </row>
     <row r="668" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B668" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C668" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D668" s="26"/>
       <c r="E668" s="27" t="n">
@@ -9414,7 +9420,7 @@
     </row>
     <row r="669" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B669" s="28" t="n">
         <v>20.47</v>
@@ -9439,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C671" s="2"/>
       <c r="D671" s="2"/>
@@ -9480,7 +9486,7 @@
     </row>
     <row r="675" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B675" s="14" t="s">
         <v>10</v>
@@ -9497,7 +9503,7 @@
     </row>
     <row r="676" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B676" s="14" t="s">
         <v>10</v>
@@ -9514,7 +9520,7 @@
     </row>
     <row r="677" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B677" s="14" t="s">
         <v>10</v>
@@ -9531,7 +9537,7 @@
     </row>
     <row r="678" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B678" s="14" t="s">
         <v>10</v>
@@ -9548,7 +9554,7 @@
     </row>
     <row r="679" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B679" s="14" t="s">
         <v>10</v>
@@ -9565,7 +9571,7 @@
     </row>
     <row r="680" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B680" s="14" t="s">
         <v>10</v>
@@ -9611,7 +9617,7 @@
     </row>
     <row r="684" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B684" s="22" t="s">
         <v>14</v>
@@ -9657,7 +9663,7 @@
     </row>
     <row r="688" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B688" s="22" t="s">
         <v>44</v>
@@ -9674,7 +9680,7 @@
     </row>
     <row r="689" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B689" s="22" t="s">
         <v>44</v>
@@ -9687,7 +9693,7 @@
     </row>
     <row r="690" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B690" s="22" t="s">
         <v>44</v>
@@ -9700,7 +9706,7 @@
     </row>
     <row r="691" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B691" s="22" t="s">
         <v>44</v>
@@ -9713,7 +9719,7 @@
     </row>
     <row r="692" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B692" s="22" t="s">
         <v>44</v>
@@ -9726,7 +9732,7 @@
     </row>
     <row r="693" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B693" s="22" t="s">
         <v>44</v>
@@ -9739,7 +9745,7 @@
     </row>
     <row r="694" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B694" s="22" t="s">
         <v>44</v>
@@ -9752,7 +9758,7 @@
     </row>
     <row r="695" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B695" s="5"/>
       <c r="C695" s="19"/>
@@ -9763,13 +9769,13 @@
     </row>
     <row r="696" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B696" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C696" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D696" s="26"/>
       <c r="E696" s="27" t="n">
@@ -9778,7 +9784,7 @@
     </row>
     <row r="697" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B697" s="28" t="n">
         <v>8</v>
@@ -9810,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="B700" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C700" s="2"/>
       <c r="D700" s="2"/>
@@ -9851,7 +9857,7 @@
     </row>
     <row r="704" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B704" s="14" t="s">
         <v>12</v>
@@ -9868,7 +9874,7 @@
     </row>
     <row r="705" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B705" s="14" t="s">
         <v>10</v>
@@ -9885,7 +9891,7 @@
     </row>
     <row r="706" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B706" s="14" t="s">
         <v>12</v>
@@ -9949,7 +9955,7 @@
     </row>
     <row r="712" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B712" s="22" t="s">
         <v>14</v>
@@ -10003,7 +10009,7 @@
     </row>
     <row r="716" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B716" s="22" t="s">
         <v>44</v>
@@ -10020,7 +10026,7 @@
     </row>
     <row r="717" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B717" s="22" t="s">
         <v>44</v>
@@ -10033,7 +10039,7 @@
     </row>
     <row r="718" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B718" s="22" t="s">
         <v>44</v>
@@ -10046,7 +10052,7 @@
     </row>
     <row r="719" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B719" s="22" t="s">
         <v>44</v>
@@ -10059,7 +10065,7 @@
     </row>
     <row r="720" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B720" s="22" t="s">
         <v>44</v>
@@ -10072,7 +10078,7 @@
     </row>
     <row r="721" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B721" s="22" t="s">
         <v>44</v>
@@ -10085,7 +10091,7 @@
     </row>
     <row r="722" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B722" s="22" t="s">
         <v>44</v>
@@ -10102,7 +10108,7 @@
     </row>
     <row r="723" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B723" s="5"/>
       <c r="C723" s="19"/>
@@ -10113,13 +10119,13 @@
     </row>
     <row r="724" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B724" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C724" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D724" s="26"/>
       <c r="E724" s="27" t="n">
@@ -10128,7 +10134,7 @@
     </row>
     <row r="725" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B725" s="28" t="n">
         <v>1</v>
@@ -10153,7 +10159,7 @@
         <v>0</v>
       </c>
       <c r="B727" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C727" s="2"/>
       <c r="D727" s="2"/>
@@ -10194,7 +10200,7 @@
     </row>
     <row r="731" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B731" s="14" t="s">
         <v>12</v>
@@ -10211,7 +10217,7 @@
     </row>
     <row r="732" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B732" s="14" t="s">
         <v>10</v>
@@ -10228,7 +10234,7 @@
     </row>
     <row r="733" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B733" s="14" t="s">
         <v>12</v>
@@ -10292,7 +10298,7 @@
     </row>
     <row r="739" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B739" s="22" t="s">
         <v>14</v>
@@ -10346,7 +10352,7 @@
     </row>
     <row r="743" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B743" s="22" t="s">
         <v>44</v>
@@ -10363,7 +10369,7 @@
     </row>
     <row r="744" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B744" s="22" t="s">
         <v>44</v>
@@ -10376,7 +10382,7 @@
     </row>
     <row r="745" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B745" s="22" t="s">
         <v>44</v>
@@ -10389,7 +10395,7 @@
     </row>
     <row r="746" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B746" s="22" t="s">
         <v>44</v>
@@ -10402,7 +10408,7 @@
     </row>
     <row r="747" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B747" s="22" t="s">
         <v>44</v>
@@ -10415,7 +10421,7 @@
     </row>
     <row r="748" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B748" s="22" t="s">
         <v>44</v>
@@ -10428,7 +10434,7 @@
     </row>
     <row r="749" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B749" s="22" t="s">
         <v>44</v>
@@ -10445,7 +10451,7 @@
     </row>
     <row r="750" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B750" s="5"/>
       <c r="C750" s="19"/>
@@ -10456,13 +10462,13 @@
     </row>
     <row r="751" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B751" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C751" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D751" s="26"/>
       <c r="E751" s="27" t="n">
@@ -10471,7 +10477,7 @@
     </row>
     <row r="752" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B752" s="28" t="n">
         <v>1</v>
@@ -10503,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="B755" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C755" s="2"/>
       <c r="D755" s="2"/>
@@ -10544,10 +10550,10 @@
     </row>
     <row r="759" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B759" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C759" s="15" t="n">
         <v>41.844</v>
@@ -10561,7 +10567,7 @@
     </row>
     <row r="760" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B760" s="14" t="s">
         <v>10</v>
@@ -10578,7 +10584,7 @@
     </row>
     <row r="761" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B761" s="14" t="s">
         <v>12</v>
@@ -10595,7 +10601,7 @@
     </row>
     <row r="762" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B762" s="14" t="s">
         <v>12</v>
@@ -10677,7 +10683,7 @@
     </row>
     <row r="770" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B770" s="22" t="s">
         <v>14</v>
@@ -10731,7 +10737,7 @@
     </row>
     <row r="774" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B774" s="22" t="s">
         <v>44</v>
@@ -10748,7 +10754,7 @@
     </row>
     <row r="775" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B775" s="22" t="s">
         <v>44</v>
@@ -10761,7 +10767,7 @@
     </row>
     <row r="776" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B776" s="22" t="s">
         <v>44</v>
@@ -10774,7 +10780,7 @@
     </row>
     <row r="777" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B777" s="22" t="s">
         <v>44</v>
@@ -10787,7 +10793,7 @@
     </row>
     <row r="778" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B778" s="22" t="s">
         <v>44</v>
@@ -10800,7 +10806,7 @@
     </row>
     <row r="779" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B779" s="22" t="s">
         <v>44</v>
@@ -10813,7 +10819,7 @@
     </row>
     <row r="780" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B780" s="22" t="s">
         <v>44</v>
@@ -10826,7 +10832,7 @@
     </row>
     <row r="781" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B781" s="5"/>
       <c r="C781" s="19"/>
@@ -10837,13 +10843,13 @@
     </row>
     <row r="782" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B782" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C782" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D782" s="26"/>
       <c r="E782" s="27" t="n">
@@ -10852,7 +10858,7 @@
     </row>
     <row r="783" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B783" s="28" t="n">
         <v>38.04</v>
@@ -10877,7 +10883,7 @@
         <v>0</v>
       </c>
       <c r="B785" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C785" s="2"/>
       <c r="D785" s="2"/>
@@ -10918,7 +10924,7 @@
     </row>
     <row r="789" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B789" s="14" t="s">
         <v>29</v>
@@ -10935,7 +10941,7 @@
     </row>
     <row r="790" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B790" s="14" t="s">
         <v>10</v>
@@ -11080,7 +11086,7 @@
     </row>
     <row r="805" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B805" s="22" t="s">
         <v>14</v>
@@ -11134,7 +11140,7 @@
     </row>
     <row r="809" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B809" s="22" t="s">
         <v>44</v>
@@ -11151,7 +11157,7 @@
     </row>
     <row r="810" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B810" s="22" t="s">
         <v>44</v>
@@ -11164,7 +11170,7 @@
     </row>
     <row r="811" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B811" s="22" t="s">
         <v>44</v>
@@ -11177,7 +11183,7 @@
     </row>
     <row r="812" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B812" s="22" t="s">
         <v>44</v>
@@ -11190,7 +11196,7 @@
     </row>
     <row r="813" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B813" s="22" t="s">
         <v>44</v>
@@ -11203,7 +11209,7 @@
     </row>
     <row r="814" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B814" s="22" t="s">
         <v>44</v>
@@ -11216,7 +11222,7 @@
     </row>
     <row r="815" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B815" s="22" t="s">
         <v>44</v>
@@ -11229,7 +11235,7 @@
     </row>
     <row r="816" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B816" s="5"/>
       <c r="C816" s="19"/>
@@ -11240,13 +11246,13 @@
     </row>
     <row r="817" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B817" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C817" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D817" s="26"/>
       <c r="E817" s="27" t="n">
@@ -11255,7 +11261,7 @@
     </row>
     <row r="818" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B818" s="28" t="n">
         <v>18.3</v>
@@ -11280,7 +11286,7 @@
         <v>0</v>
       </c>
       <c r="B820" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C820" s="2"/>
       <c r="D820" s="2"/>
@@ -11321,7 +11327,7 @@
     </row>
     <row r="824" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B824" s="14" t="s">
         <v>10</v>
@@ -11338,7 +11344,7 @@
     </row>
     <row r="825" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B825" s="14" t="s">
         <v>10</v>
@@ -11355,7 +11361,7 @@
     </row>
     <row r="826" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B826" s="14" t="s">
         <v>10</v>
@@ -11372,7 +11378,7 @@
     </row>
     <row r="827" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B827" s="14" t="s">
         <v>10</v>
@@ -11389,7 +11395,7 @@
     </row>
     <row r="828" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B828" s="14" t="s">
         <v>10</v>
@@ -11406,7 +11412,7 @@
     </row>
     <row r="829" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B829" s="14" t="s">
         <v>12</v>
@@ -11452,7 +11458,7 @@
     </row>
     <row r="833" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B833" s="22" t="s">
         <v>14</v>
@@ -11506,7 +11512,7 @@
     </row>
     <row r="837" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B837" s="22" t="s">
         <v>44</v>
@@ -11523,7 +11529,7 @@
     </row>
     <row r="838" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B838" s="22" t="s">
         <v>44</v>
@@ -11536,7 +11542,7 @@
     </row>
     <row r="839" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B839" s="22" t="s">
         <v>44</v>
@@ -11549,7 +11555,7 @@
     </row>
     <row r="840" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B840" s="22" t="s">
         <v>44</v>
@@ -11562,7 +11568,7 @@
     </row>
     <row r="841" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B841" s="22" t="s">
         <v>44</v>
@@ -11575,7 +11581,7 @@
     </row>
     <row r="842" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B842" s="22" t="s">
         <v>44</v>
@@ -11588,7 +11594,7 @@
     </row>
     <row r="843" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B843" s="22" t="s">
         <v>44</v>
@@ -11601,7 +11607,7 @@
     </row>
     <row r="844" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B844" s="5"/>
       <c r="C844" s="19"/>
@@ -11612,13 +11618,13 @@
     </row>
     <row r="845" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B845" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C845" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D845" s="26"/>
       <c r="E845" s="27" t="n">
@@ -11627,7 +11633,7 @@
     </row>
     <row r="846" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B846" s="28" t="n">
         <v>14</v>
@@ -11680,7 +11686,7 @@
         <v>0</v>
       </c>
       <c r="B852" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C852" s="2"/>
       <c r="D852" s="2"/>
@@ -11721,7 +11727,7 @@
     </row>
     <row r="856" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B856" s="14" t="s">
         <v>10</v>
@@ -11738,7 +11744,7 @@
     </row>
     <row r="857" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B857" s="14" t="s">
         <v>10</v>
@@ -11755,7 +11761,7 @@
     </row>
     <row r="858" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B858" s="14" t="s">
         <v>10</v>
@@ -11772,7 +11778,7 @@
     </row>
     <row r="859" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B859" s="14" t="s">
         <v>10</v>
@@ -11845,7 +11851,7 @@
     </row>
     <row r="866" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B866" s="22" t="s">
         <v>14</v>
@@ -11899,7 +11905,7 @@
     </row>
     <row r="870" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B870" s="22" t="s">
         <v>44</v>
@@ -11916,7 +11922,7 @@
     </row>
     <row r="871" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B871" s="22" t="s">
         <v>44</v>
@@ -11929,7 +11935,7 @@
     </row>
     <row r="872" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B872" s="22" t="s">
         <v>44</v>
@@ -11942,7 +11948,7 @@
     </row>
     <row r="873" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B873" s="22" t="s">
         <v>44</v>
@@ -11955,7 +11961,7 @@
     </row>
     <row r="874" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B874" s="22" t="s">
         <v>44</v>
@@ -11968,7 +11974,7 @@
     </row>
     <row r="875" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B875" s="22" t="s">
         <v>44</v>
@@ -11981,7 +11987,7 @@
     </row>
     <row r="876" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B876" s="22" t="s">
         <v>44</v>
@@ -11994,7 +12000,7 @@
     </row>
     <row r="877" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B877" s="5"/>
       <c r="C877" s="19"/>
@@ -12005,13 +12011,13 @@
     </row>
     <row r="878" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B878" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C878" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D878" s="26"/>
       <c r="E878" s="27" t="n">
@@ -12020,7 +12026,7 @@
     </row>
     <row r="879" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B879" s="28" t="n">
         <v>5.5</v>
@@ -12045,7 +12051,7 @@
         <v>0</v>
       </c>
       <c r="B881" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C881" s="2"/>
       <c r="D881" s="2"/>
@@ -12086,7 +12092,7 @@
     </row>
     <row r="885" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B885" s="14" t="s">
         <v>10</v>
@@ -12103,7 +12109,7 @@
     </row>
     <row r="886" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B886" s="14" t="s">
         <v>10</v>
@@ -12120,7 +12126,7 @@
     </row>
     <row r="887" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B887" s="14" t="s">
         <v>10</v>
@@ -12137,7 +12143,7 @@
     </row>
     <row r="888" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B888" s="14" t="s">
         <v>12</v>
@@ -12154,7 +12160,7 @@
     </row>
     <row r="889" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B889" s="14" t="s">
         <v>12</v>
@@ -12171,7 +12177,7 @@
     </row>
     <row r="890" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B890" s="14" t="s">
         <v>12</v>
@@ -12226,7 +12232,7 @@
     </row>
     <row r="895" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B895" s="22" t="s">
         <v>14</v>
@@ -12280,7 +12286,7 @@
     </row>
     <row r="899" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B899" s="22" t="s">
         <v>44</v>
@@ -12297,7 +12303,7 @@
     </row>
     <row r="900" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B900" s="22" t="s">
         <v>44</v>
@@ -12310,7 +12316,7 @@
     </row>
     <row r="901" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B901" s="22" t="s">
         <v>44</v>
@@ -12323,7 +12329,7 @@
     </row>
     <row r="902" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B902" s="22" t="s">
         <v>44</v>
@@ -12336,7 +12342,7 @@
     </row>
     <row r="903" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B903" s="22" t="s">
         <v>44</v>
@@ -12349,7 +12355,7 @@
     </row>
     <row r="904" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B904" s="22" t="s">
         <v>44</v>
@@ -12362,7 +12368,7 @@
     </row>
     <row r="905" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B905" s="22" t="s">
         <v>44</v>
@@ -12375,7 +12381,7 @@
     </row>
     <row r="906" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B906" s="5"/>
       <c r="C906" s="19"/>
@@ -12386,13 +12392,13 @@
     </row>
     <row r="907" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B907" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C907" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D907" s="26"/>
       <c r="E907" s="27" t="n">
@@ -12401,7 +12407,7 @@
     </row>
     <row r="908" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B908" s="28" t="n">
         <v>1</v>
@@ -12426,7 +12432,7 @@
         <v>0</v>
       </c>
       <c r="B910" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C910" s="2"/>
       <c r="D910" s="2"/>
@@ -12467,7 +12473,7 @@
     </row>
     <row r="914" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B914" s="14" t="s">
         <v>10</v>
@@ -12484,7 +12490,7 @@
     </row>
     <row r="915" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B915" s="14" t="s">
         <v>10</v>
@@ -12501,7 +12507,7 @@
     </row>
     <row r="916" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B916" s="14" t="s">
         <v>10</v>
@@ -12518,7 +12524,7 @@
     </row>
     <row r="917" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B917" s="14" t="s">
         <v>10</v>
@@ -12535,7 +12541,7 @@
     </row>
     <row r="918" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B918" s="14" t="s">
         <v>10</v>
@@ -12599,7 +12605,7 @@
     </row>
     <row r="924" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B924" s="22" t="s">
         <v>14</v>
@@ -12653,7 +12659,7 @@
     </row>
     <row r="928" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B928" s="22" t="s">
         <v>44</v>
@@ -12670,7 +12676,7 @@
     </row>
     <row r="929" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B929" s="22" t="s">
         <v>44</v>
@@ -12683,7 +12689,7 @@
     </row>
     <row r="930" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B930" s="22" t="s">
         <v>44</v>
@@ -12696,7 +12702,7 @@
     </row>
     <row r="931" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B931" s="22" t="s">
         <v>44</v>
@@ -12709,7 +12715,7 @@
     </row>
     <row r="932" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B932" s="22" t="s">
         <v>44</v>
@@ -12722,7 +12728,7 @@
     </row>
     <row r="933" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B933" s="22" t="s">
         <v>44</v>
@@ -12735,7 +12741,7 @@
     </row>
     <row r="934" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B934" s="22" t="s">
         <v>44</v>
@@ -12748,7 +12754,7 @@
     </row>
     <row r="935" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B935" s="5"/>
       <c r="C935" s="19"/>
@@ -12759,13 +12765,13 @@
     </row>
     <row r="936" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B936" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C936" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D936" s="26"/>
       <c r="E936" s="27" t="n">
@@ -12774,7 +12780,7 @@
     </row>
     <row r="937" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B937" s="28" t="n">
         <v>1</v>
@@ -12813,7 +12819,7 @@
         <v>0</v>
       </c>
       <c r="B941" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C941" s="2"/>
       <c r="D941" s="2"/>
@@ -12854,7 +12860,7 @@
     </row>
     <row r="945" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B945" s="14" t="s">
         <v>10</v>
@@ -12871,7 +12877,7 @@
     </row>
     <row r="946" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B946" s="14" t="s">
         <v>10</v>
@@ -12888,7 +12894,7 @@
     </row>
     <row r="947" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B947" s="14" t="s">
         <v>10</v>
@@ -12905,7 +12911,7 @@
     </row>
     <row r="948" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B948" s="14" t="s">
         <v>10</v>
@@ -12978,7 +12984,7 @@
     </row>
     <row r="955" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B955" s="22" t="s">
         <v>14</v>
@@ -13032,7 +13038,7 @@
     </row>
     <row r="959" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B959" s="22" t="s">
         <v>44</v>
@@ -13049,7 +13055,7 @@
     </row>
     <row r="960" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B960" s="22" t="s">
         <v>44</v>
@@ -13062,7 +13068,7 @@
     </row>
     <row r="961" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B961" s="22" t="s">
         <v>44</v>
@@ -13075,7 +13081,7 @@
     </row>
     <row r="962" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B962" s="22" t="s">
         <v>44</v>
@@ -13088,7 +13094,7 @@
     </row>
     <row r="963" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B963" s="22" t="s">
         <v>44</v>
@@ -13101,7 +13107,7 @@
     </row>
     <row r="964" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B964" s="22" t="s">
         <v>44</v>
@@ -13114,7 +13120,7 @@
     </row>
     <row r="965" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B965" s="22" t="s">
         <v>44</v>
@@ -13127,7 +13133,7 @@
     </row>
     <row r="966" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B966" s="5"/>
       <c r="C966" s="19"/>
@@ -13138,13 +13144,13 @@
     </row>
     <row r="967" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B967" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C967" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D967" s="26"/>
       <c r="E967" s="27" t="n">
@@ -13153,7 +13159,7 @@
     </row>
     <row r="968" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B968" s="28" t="n">
         <v>1</v>
@@ -13199,7 +13205,7 @@
         <v>0</v>
       </c>
       <c r="B973" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C973" s="2"/>
       <c r="D973" s="2"/>
@@ -13240,7 +13246,7 @@
     </row>
     <row r="977" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="18" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B977" s="14" t="s">
         <v>10</v>
@@ -13348,7 +13354,7 @@
     </row>
     <row r="987" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B987" s="22" t="s">
         <v>14</v>
@@ -13402,7 +13408,7 @@
     </row>
     <row r="991" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B991" s="22" t="s">
         <v>44</v>
@@ -13419,7 +13425,7 @@
     </row>
     <row r="992" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B992" s="22" t="s">
         <v>44</v>
@@ -13432,7 +13438,7 @@
     </row>
     <row r="993" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B993" s="22" t="s">
         <v>44</v>
@@ -13445,7 +13451,7 @@
     </row>
     <row r="994" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B994" s="22" t="s">
         <v>44</v>
@@ -13458,7 +13464,7 @@
     </row>
     <row r="995" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B995" s="22" t="s">
         <v>44</v>
@@ -13471,7 +13477,7 @@
     </row>
     <row r="996" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B996" s="22" t="s">
         <v>44</v>
@@ -13484,7 +13490,7 @@
     </row>
     <row r="997" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B997" s="22" t="s">
         <v>44</v>
@@ -13501,7 +13507,7 @@
     </row>
     <row r="998" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B998" s="5"/>
       <c r="C998" s="19"/>
@@ -13512,13 +13518,13 @@
     </row>
     <row r="999" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B999" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C999" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D999" s="26"/>
       <c r="E999" s="27" t="n">
@@ -13527,7 +13533,7 @@
     </row>
     <row r="1000" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1000" s="28" t="n">
         <v>1</v>
@@ -13559,7 +13565,7 @@
         <v>0</v>
       </c>
       <c r="B1003" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C1003" s="2"/>
       <c r="D1003" s="2"/>
@@ -13600,7 +13606,7 @@
     </row>
     <row r="1007" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1007" s="18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B1007" s="14" t="s">
         <v>12</v>
@@ -13617,7 +13623,7 @@
     </row>
     <row r="1008" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1008" s="18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B1008" s="14" t="s">
         <v>10</v>
@@ -13708,7 +13714,7 @@
     </row>
     <row r="1017" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1017" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1017" s="22" t="s">
         <v>14</v>
@@ -13762,7 +13768,7 @@
     </row>
     <row r="1021" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1021" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1021" s="22" t="s">
         <v>44</v>
@@ -13779,7 +13785,7 @@
     </row>
     <row r="1022" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1022" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1022" s="22" t="s">
         <v>44</v>
@@ -13792,7 +13798,7 @@
     </row>
     <row r="1023" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1023" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1023" s="22" t="s">
         <v>44</v>
@@ -13805,7 +13811,7 @@
     </row>
     <row r="1024" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1024" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1024" s="22" t="s">
         <v>44</v>
@@ -13818,7 +13824,7 @@
     </row>
     <row r="1025" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1025" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1025" s="22" t="s">
         <v>44</v>
@@ -13831,7 +13837,7 @@
     </row>
     <row r="1026" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1026" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1026" s="22" t="s">
         <v>44</v>
@@ -13844,7 +13850,7 @@
     </row>
     <row r="1027" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1027" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1027" s="22" t="s">
         <v>44</v>
@@ -13861,7 +13867,7 @@
     </row>
     <row r="1028" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1028" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1028" s="5"/>
       <c r="C1028" s="19"/>
@@ -13872,13 +13878,13 @@
     </row>
     <row r="1029" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1029" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1029" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C1029" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1029" s="26"/>
       <c r="E1029" s="27" t="n">
@@ -13887,7 +13893,7 @@
     </row>
     <row r="1030" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1030" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1030" s="28" t="n">
         <v>1</v>
@@ -13912,7 +13918,7 @@
         <v>0</v>
       </c>
       <c r="B1032" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C1032" s="2"/>
       <c r="D1032" s="2"/>
@@ -13953,10 +13959,10 @@
     </row>
     <row r="1036" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1036" s="18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B1036" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1036" s="15" t="n">
         <v>5.25</v>
@@ -14053,7 +14059,7 @@
     </row>
     <row r="1046" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1046" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1046" s="22" t="s">
         <v>14</v>
@@ -14107,7 +14113,7 @@
     </row>
     <row r="1050" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1050" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1050" s="22" t="s">
         <v>44</v>
@@ -14124,7 +14130,7 @@
     </row>
     <row r="1051" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1051" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1051" s="22" t="s">
         <v>44</v>
@@ -14137,7 +14143,7 @@
     </row>
     <row r="1052" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1052" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1052" s="22" t="s">
         <v>44</v>
@@ -14150,7 +14156,7 @@
     </row>
     <row r="1053" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1053" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1053" s="22" t="s">
         <v>44</v>
@@ -14163,7 +14169,7 @@
     </row>
     <row r="1054" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1054" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1054" s="22" t="s">
         <v>44</v>
@@ -14176,7 +14182,7 @@
     </row>
     <row r="1055" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1055" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1055" s="22" t="s">
         <v>44</v>
@@ -14189,7 +14195,7 @@
     </row>
     <row r="1056" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1056" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1056" s="22" t="s">
         <v>44</v>
@@ -14202,7 +14208,7 @@
     </row>
     <row r="1057" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1057" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1057" s="5"/>
       <c r="C1057" s="19"/>
@@ -14213,13 +14219,13 @@
     </row>
     <row r="1058" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1058" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1058" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C1058" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1058" s="26"/>
       <c r="E1058" s="27" t="n">
@@ -14228,7 +14234,7 @@
     </row>
     <row r="1059" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1059" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1059" s="28" t="n">
         <v>70</v>
@@ -14253,7 +14259,7 @@
         <v>0</v>
       </c>
       <c r="B1061" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C1061" s="2"/>
       <c r="D1061" s="2"/>
@@ -14294,10 +14300,10 @@
     </row>
     <row r="1065" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1065" s="18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B1065" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1065" s="15" t="n">
         <v>1.296</v>
@@ -14311,10 +14317,10 @@
     </row>
     <row r="1066" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1066" s="18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B1066" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1066" s="15" t="n">
         <v>0.108</v>
@@ -14328,10 +14334,10 @@
     </row>
     <row r="1067" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1067" s="18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B1067" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1067" s="15" t="n">
         <v>1.152</v>
@@ -14345,10 +14351,10 @@
     </row>
     <row r="1068" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1068" s="18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B1068" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C1068" s="15" t="n">
         <v>57.6</v>
@@ -14362,10 +14368,10 @@
     </row>
     <row r="1069" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1069" s="18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B1069" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C1069" s="15" t="n">
         <v>9.216</v>
@@ -14379,10 +14385,10 @@
     </row>
     <row r="1070" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1070" s="18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B1070" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C1070" s="15" t="n">
         <v>7.92</v>
@@ -14434,7 +14440,7 @@
     </row>
     <row r="1075" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1075" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1075" s="22" t="s">
         <v>14</v>
@@ -14480,7 +14486,7 @@
     </row>
     <row r="1079" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1079" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1079" s="22" t="s">
         <v>44</v>
@@ -14493,7 +14499,7 @@
     </row>
     <row r="1080" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1080" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1080" s="22" t="s">
         <v>44</v>
@@ -14506,7 +14512,7 @@
     </row>
     <row r="1081" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1081" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1081" s="22" t="s">
         <v>44</v>
@@ -14519,7 +14525,7 @@
     </row>
     <row r="1082" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1082" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1082" s="22" t="s">
         <v>44</v>
@@ -14532,7 +14538,7 @@
     </row>
     <row r="1083" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1083" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1083" s="22" t="s">
         <v>44</v>
@@ -14545,7 +14551,7 @@
     </row>
     <row r="1084" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1084" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1084" s="22" t="s">
         <v>44</v>
@@ -14558,7 +14564,7 @@
     </row>
     <row r="1085" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1085" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1085" s="22" t="s">
         <v>44</v>
@@ -14571,7 +14577,7 @@
     </row>
     <row r="1086" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1086" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1086" s="5"/>
       <c r="C1086" s="19"/>
@@ -14582,13 +14588,13 @@
     </row>
     <row r="1087" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1087" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1087" s="25" t="n">
         <v>1</v>
       </c>
       <c r="C1087" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1087" s="26"/>
       <c r="E1087" s="27" t="n">
@@ -14597,7 +14603,7 @@
     </row>
     <row r="1088" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1088" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1088" s="28" t="n">
         <v>6</v>
@@ -14622,7 +14628,7 @@
         <v>0</v>
       </c>
       <c r="B1090" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C1090" s="2"/>
       <c r="D1090" s="2"/>
@@ -14755,7 +14761,7 @@
     </row>
     <row r="1104" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1104" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1104" s="22" t="s">
         <v>14</v>
@@ -14809,7 +14815,7 @@
     </row>
     <row r="1108" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1108" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1108" s="22" t="s">
         <v>44</v>
@@ -14826,7 +14832,7 @@
     </row>
     <row r="1109" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1109" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1109" s="22" t="s">
         <v>44</v>
@@ -14839,7 +14845,7 @@
     </row>
     <row r="1110" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1110" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1110" s="22" t="s">
         <v>44</v>
@@ -14852,7 +14858,7 @@
     </row>
     <row r="1111" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1111" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1111" s="22" t="s">
         <v>44</v>
@@ -14865,7 +14871,7 @@
     </row>
     <row r="1112" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1112" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1112" s="22" t="s">
         <v>44</v>
@@ -14878,7 +14884,7 @@
     </row>
     <row r="1113" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1113" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1113" s="22" t="s">
         <v>44</v>
@@ -14891,7 +14897,7 @@
     </row>
     <row r="1114" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1114" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1114" s="22" t="s">
         <v>44</v>
@@ -14908,7 +14914,7 @@
     </row>
     <row r="1115" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1115" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1115" s="5"/>
       <c r="C1115" s="19"/>
@@ -14919,13 +14925,13 @@
     </row>
     <row r="1116" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1116" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1116" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C1116" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1116" s="26"/>
       <c r="E1116" s="27" t="n">
@@ -14934,7 +14940,7 @@
     </row>
     <row r="1117" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1117" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1117" s="28" t="n">
         <v>1</v>
@@ -14959,7 +14965,7 @@
         <v>0</v>
       </c>
       <c r="B1119" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C1119" s="2"/>
       <c r="D1119" s="2"/>
@@ -15000,10 +15006,10 @@
     </row>
     <row r="1123" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1123" s="18" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B1123" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C1123" s="15" t="n">
         <v>19</v>
@@ -15109,7 +15115,7 @@
     </row>
     <row r="1134" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1134" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1134" s="22" t="s">
         <v>14</v>
@@ -15163,7 +15169,7 @@
     </row>
     <row r="1138" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1138" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1138" s="22" t="s">
         <v>44</v>
@@ -15180,7 +15186,7 @@
     </row>
     <row r="1139" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1139" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1139" s="22" t="s">
         <v>44</v>
@@ -15193,7 +15199,7 @@
     </row>
     <row r="1140" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1140" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1140" s="22" t="s">
         <v>44</v>
@@ -15206,7 +15212,7 @@
     </row>
     <row r="1141" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1141" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1141" s="22" t="s">
         <v>44</v>
@@ -15219,7 +15225,7 @@
     </row>
     <row r="1142" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1142" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1142" s="22" t="s">
         <v>44</v>
@@ -15232,7 +15238,7 @@
     </row>
     <row r="1143" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1143" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1143" s="22" t="s">
         <v>44</v>
@@ -15245,7 +15251,7 @@
     </row>
     <row r="1144" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1144" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1144" s="22" t="s">
         <v>44</v>
@@ -15258,7 +15264,7 @@
     </row>
     <row r="1145" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1145" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1145" s="5"/>
       <c r="C1145" s="19"/>
@@ -15269,13 +15275,13 @@
     </row>
     <row r="1146" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1146" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1146" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C1146" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1146" s="26"/>
       <c r="E1146" s="27" t="n">
@@ -15284,7 +15290,7 @@
     </row>
     <row r="1147" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1147" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1147" s="28" t="n">
         <v>128.5</v>
@@ -15316,7 +15322,7 @@
         <v>0</v>
       </c>
       <c r="B1150" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C1150" s="2"/>
       <c r="D1150" s="2"/>
@@ -15357,10 +15363,10 @@
     </row>
     <row r="1154" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1154" s="18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B1154" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C1154" s="15" t="n">
         <v>116.5</v>
@@ -15421,7 +15427,7 @@
     </row>
     <row r="1160" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1160" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1160" s="22" t="s">
         <v>14</v>
@@ -15475,7 +15481,7 @@
     </row>
     <row r="1164" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1164" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1164" s="22" t="s">
         <v>44</v>
@@ -15492,7 +15498,7 @@
     </row>
     <row r="1165" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1165" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1165" s="22" t="s">
         <v>44</v>
@@ -15505,7 +15511,7 @@
     </row>
     <row r="1166" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1166" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1166" s="22" t="s">
         <v>44</v>
@@ -15518,7 +15524,7 @@
     </row>
     <row r="1167" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1167" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1167" s="22" t="s">
         <v>44</v>
@@ -15531,7 +15537,7 @@
     </row>
     <row r="1168" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1168" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1168" s="22" t="s">
         <v>44</v>
@@ -15544,7 +15550,7 @@
     </row>
     <row r="1169" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1169" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1169" s="22" t="s">
         <v>44</v>
@@ -15557,7 +15563,7 @@
     </row>
     <row r="1170" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1170" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1170" s="22" t="s">
         <v>44</v>
@@ -15570,7 +15576,7 @@
     </row>
     <row r="1171" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1171" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1171" s="5"/>
       <c r="C1171" s="19"/>
@@ -15581,13 +15587,13 @@
     </row>
     <row r="1172" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1172" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1172" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C1172" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1172" s="26"/>
       <c r="E1172" s="27" t="n">
@@ -15596,7 +15602,7 @@
     </row>
     <row r="1173" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1173" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1173" s="28" t="n">
         <v>116.5</v>
@@ -15621,7 +15627,7 @@
         <v>0</v>
       </c>
       <c r="B1175" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C1175" s="2"/>
       <c r="D1175" s="2"/>
@@ -15662,10 +15668,10 @@
     </row>
     <row r="1179" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1179" s="18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B1179" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C1179" s="15" t="n">
         <v>7.9</v>
@@ -15726,7 +15732,7 @@
     </row>
     <row r="1185" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1185" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1185" s="22" t="s">
         <v>14</v>
@@ -15780,7 +15786,7 @@
     </row>
     <row r="1189" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1189" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1189" s="22" t="s">
         <v>44</v>
@@ -15797,7 +15803,7 @@
     </row>
     <row r="1190" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1190" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1190" s="22" t="s">
         <v>44</v>
@@ -15810,7 +15816,7 @@
     </row>
     <row r="1191" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1191" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1191" s="22" t="s">
         <v>44</v>
@@ -15823,7 +15829,7 @@
     </row>
     <row r="1192" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1192" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1192" s="22" t="s">
         <v>44</v>
@@ -15836,7 +15842,7 @@
     </row>
     <row r="1193" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1193" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1193" s="22" t="s">
         <v>44</v>
@@ -15849,7 +15855,7 @@
     </row>
     <row r="1194" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1194" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1194" s="22" t="s">
         <v>44</v>
@@ -15862,7 +15868,7 @@
     </row>
     <row r="1195" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1195" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1195" s="22" t="s">
         <v>44</v>
@@ -15875,7 +15881,7 @@
     </row>
     <row r="1196" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1196" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1196" s="5"/>
       <c r="C1196" s="19"/>
@@ -15886,13 +15892,13 @@
     </row>
     <row r="1197" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1197" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1197" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C1197" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1197" s="26"/>
       <c r="E1197" s="27" t="n">
@@ -15901,7 +15907,7 @@
     </row>
     <row r="1198" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1198" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1198" s="28" t="n">
         <v>7.9</v>
@@ -15933,7 +15939,7 @@
         <v>0</v>
       </c>
       <c r="B1201" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C1201" s="2"/>
       <c r="D1201" s="2"/>
@@ -15974,10 +15980,10 @@
     </row>
     <row r="1205" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1205" s="18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B1205" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C1205" s="15" t="n">
         <v>88.025</v>
@@ -16038,7 +16044,7 @@
     </row>
     <row r="1211" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1211" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1211" s="22" t="s">
         <v>14</v>
@@ -16092,7 +16098,7 @@
     </row>
     <row r="1215" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1215" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1215" s="22" t="s">
         <v>44</v>
@@ -16109,7 +16115,7 @@
     </row>
     <row r="1216" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1216" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1216" s="22" t="s">
         <v>44</v>
@@ -16122,7 +16128,7 @@
     </row>
     <row r="1217" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1217" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1217" s="22" t="s">
         <v>44</v>
@@ -16135,7 +16141,7 @@
     </row>
     <row r="1218" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1218" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1218" s="22" t="s">
         <v>44</v>
@@ -16148,7 +16154,7 @@
     </row>
     <row r="1219" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1219" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1219" s="22" t="s">
         <v>44</v>
@@ -16161,7 +16167,7 @@
     </row>
     <row r="1220" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1220" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1220" s="22" t="s">
         <v>44</v>
@@ -16174,7 +16180,7 @@
     </row>
     <row r="1221" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1221" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1221" s="22" t="s">
         <v>44</v>
@@ -16187,7 +16193,7 @@
     </row>
     <row r="1222" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1222" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1222" s="5"/>
       <c r="C1222" s="19"/>
@@ -16198,13 +16204,13 @@
     </row>
     <row r="1223" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1223" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1223" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C1223" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1223" s="26"/>
       <c r="E1223" s="27" t="n">
@@ -16213,7 +16219,7 @@
     </row>
     <row r="1224" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1224" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1224" s="28" t="n">
         <v>88.025</v>
@@ -16238,7 +16244,7 @@
         <v>0</v>
       </c>
       <c r="B1226" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C1226" s="2"/>
       <c r="D1226" s="2"/>
@@ -16279,7 +16285,7 @@
     </row>
     <row r="1230" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1230" s="18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B1230" s="14" t="s">
         <v>10</v>
@@ -16343,7 +16349,7 @@
     </row>
     <row r="1236" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1236" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1236" s="22" t="s">
         <v>14</v>
@@ -16393,7 +16399,7 @@
     </row>
     <row r="1240" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1240" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1240" s="22" t="s">
         <v>44</v>
@@ -16410,7 +16416,7 @@
     </row>
     <row r="1241" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1241" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1241" s="22" t="s">
         <v>44</v>
@@ -16423,7 +16429,7 @@
     </row>
     <row r="1242" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1242" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1242" s="22" t="s">
         <v>44</v>
@@ -16436,7 +16442,7 @@
     </row>
     <row r="1243" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1243" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1243" s="22" t="s">
         <v>44</v>
@@ -16449,7 +16455,7 @@
     </row>
     <row r="1244" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1244" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1244" s="22" t="s">
         <v>44</v>
@@ -16462,7 +16468,7 @@
     </row>
     <row r="1245" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1245" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1245" s="22" t="s">
         <v>44</v>
@@ -16475,7 +16481,7 @@
     </row>
     <row r="1246" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1246" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1246" s="22" t="s">
         <v>44</v>
@@ -16488,7 +16494,7 @@
     </row>
     <row r="1247" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1247" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1247" s="5"/>
       <c r="C1247" s="19"/>
@@ -16499,13 +16505,13 @@
     </row>
     <row r="1248" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1248" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1248" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C1248" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1248" s="26"/>
       <c r="E1248" s="27" t="n">
@@ -16514,7 +16520,7 @@
     </row>
     <row r="1249" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1249" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1249" s="28" t="n">
         <v>14</v>
@@ -16539,7 +16545,7 @@
         <v>0</v>
       </c>
       <c r="B1251" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C1251" s="2"/>
       <c r="D1251" s="2"/>
@@ -16580,7 +16586,7 @@
     </row>
     <row r="1255" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1255" s="18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B1255" s="14" t="s">
         <v>10</v>
@@ -16644,7 +16650,7 @@
     </row>
     <row r="1261" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1261" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1261" s="22" t="s">
         <v>14</v>
@@ -16698,7 +16704,7 @@
     </row>
     <row r="1265" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1265" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1265" s="22" t="s">
         <v>44</v>
@@ -16715,7 +16721,7 @@
     </row>
     <row r="1266" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1266" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1266" s="22" t="s">
         <v>44</v>
@@ -16728,7 +16734,7 @@
     </row>
     <row r="1267" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1267" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1267" s="22" t="s">
         <v>44</v>
@@ -16741,7 +16747,7 @@
     </row>
     <row r="1268" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1268" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1268" s="22" t="s">
         <v>44</v>
@@ -16754,7 +16760,7 @@
     </row>
     <row r="1269" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1269" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1269" s="22" t="s">
         <v>44</v>
@@ -16767,7 +16773,7 @@
     </row>
     <row r="1270" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1270" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1270" s="22" t="s">
         <v>44</v>
@@ -16780,7 +16786,7 @@
     </row>
     <row r="1271" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1271" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1271" s="22" t="s">
         <v>44</v>
@@ -16793,7 +16799,7 @@
     </row>
     <row r="1272" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1272" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1272" s="5"/>
       <c r="C1272" s="19"/>
@@ -16804,13 +16810,13 @@
     </row>
     <row r="1273" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1273" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1273" s="25" t="n">
         <v>1.05</v>
       </c>
       <c r="C1273" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1273" s="26"/>
       <c r="E1273" s="27" t="n">
@@ -16819,7 +16825,7 @@
     </row>
     <row r="1274" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1274" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1274" s="28" t="n">
         <v>1</v>
@@ -16851,7 +16857,7 @@
         <v>0</v>
       </c>
       <c r="B1277" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C1277" s="2"/>
       <c r="D1277" s="2"/>
@@ -16892,7 +16898,7 @@
     </row>
     <row r="1281" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1281" s="18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B1281" s="14" t="s">
         <v>10</v>
@@ -16956,7 +16962,7 @@
     </row>
     <row r="1287" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1287" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1287" s="22" t="s">
         <v>14</v>
@@ -17010,7 +17016,7 @@
     </row>
     <row r="1291" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1291" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1291" s="22" t="s">
         <v>44</v>
@@ -17027,7 +17033,7 @@
     </row>
     <row r="1292" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1292" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1292" s="22" t="s">
         <v>44</v>
@@ -17040,7 +17046,7 @@
     </row>
     <row r="1293" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1293" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1293" s="22" t="s">
         <v>44</v>
@@ -17053,7 +17059,7 @@
     </row>
     <row r="1294" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1294" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1294" s="22" t="s">
         <v>44</v>
@@ -17066,7 +17072,7 @@
     </row>
     <row r="1295" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1295" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1295" s="22" t="s">
         <v>44</v>
@@ -17079,7 +17085,7 @@
     </row>
     <row r="1296" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1296" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1296" s="22" t="s">
         <v>44</v>
@@ -17092,7 +17098,7 @@
     </row>
     <row r="1297" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1297" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1297" s="22" t="s">
         <v>44</v>
@@ -17105,7 +17111,7 @@
     </row>
     <row r="1298" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1298" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1298" s="5"/>
       <c r="C1298" s="19"/>
@@ -17116,13 +17122,13 @@
     </row>
     <row r="1299" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1299" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1299" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C1299" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1299" s="26"/>
       <c r="E1299" s="27" t="n">
@@ -17131,7 +17137,7 @@
     </row>
     <row r="1300" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1300" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1300" s="28" t="n">
         <v>1</v>
@@ -17156,7 +17162,7 @@
         <v>0</v>
       </c>
       <c r="B1302" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C1302" s="2"/>
       <c r="D1302" s="2"/>
@@ -17197,7 +17203,7 @@
     </row>
     <row r="1306" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1306" s="18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B1306" s="14" t="s">
         <v>10</v>
@@ -17261,7 +17267,7 @@
     </row>
     <row r="1312" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1312" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1312" s="22" t="s">
         <v>14</v>
@@ -17315,7 +17321,7 @@
     </row>
     <row r="1316" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1316" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1316" s="22" t="s">
         <v>44</v>
@@ -17332,7 +17338,7 @@
     </row>
     <row r="1317" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1317" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1317" s="22" t="s">
         <v>44</v>
@@ -17345,7 +17351,7 @@
     </row>
     <row r="1318" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1318" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1318" s="22" t="s">
         <v>44</v>
@@ -17358,7 +17364,7 @@
     </row>
     <row r="1319" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1319" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1319" s="22" t="s">
         <v>44</v>
@@ -17371,7 +17377,7 @@
     </row>
     <row r="1320" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1320" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1320" s="22" t="s">
         <v>44</v>
@@ -17384,7 +17390,7 @@
     </row>
     <row r="1321" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1321" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1321" s="22" t="s">
         <v>44</v>
@@ -17397,7 +17403,7 @@
     </row>
     <row r="1322" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1322" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1322" s="22" t="s">
         <v>44</v>
@@ -17410,7 +17416,7 @@
     </row>
     <row r="1323" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1323" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1323" s="5"/>
       <c r="C1323" s="19"/>
@@ -17421,13 +17427,13 @@
     </row>
     <row r="1324" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1324" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1324" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C1324" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1324" s="26"/>
       <c r="E1324" s="27" t="n">
@@ -17436,7 +17442,7 @@
     </row>
     <row r="1325" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1325" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1325" s="28" t="n">
         <v>12</v>
@@ -17461,7 +17467,7 @@
         <v>0</v>
       </c>
       <c r="B1327" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C1327" s="2"/>
       <c r="D1327" s="2"/>
@@ -17502,7 +17508,7 @@
     </row>
     <row r="1331" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1331" s="18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B1331" s="14" t="s">
         <v>10</v>
@@ -17519,7 +17525,7 @@
     </row>
     <row r="1332" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1332" s="18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B1332" s="14" t="s">
         <v>10</v>
@@ -17536,7 +17542,7 @@
     </row>
     <row r="1333" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1333" s="18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B1333" s="14" t="s">
         <v>10</v>
@@ -17582,7 +17588,7 @@
     </row>
     <row r="1337" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1337" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1337" s="22" t="s">
         <v>14</v>
@@ -17636,7 +17642,7 @@
     </row>
     <row r="1341" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1341" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1341" s="22" t="s">
         <v>44</v>
@@ -17653,7 +17659,7 @@
     </row>
     <row r="1342" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1342" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1342" s="22" t="s">
         <v>44</v>
@@ -17666,7 +17672,7 @@
     </row>
     <row r="1343" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1343" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1343" s="22" t="s">
         <v>44</v>
@@ -17679,7 +17685,7 @@
     </row>
     <row r="1344" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1344" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1344" s="22" t="s">
         <v>44</v>
@@ -17692,7 +17698,7 @@
     </row>
     <row r="1345" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1345" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1345" s="22" t="s">
         <v>44</v>
@@ -17705,7 +17711,7 @@
     </row>
     <row r="1346" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1346" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1346" s="22" t="s">
         <v>44</v>
@@ -17718,7 +17724,7 @@
     </row>
     <row r="1347" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1347" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1347" s="22" t="s">
         <v>44</v>
@@ -17731,7 +17737,7 @@
     </row>
     <row r="1348" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1348" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1348" s="5"/>
       <c r="C1348" s="19"/>
@@ -17742,13 +17748,13 @@
     </row>
     <row r="1349" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1349" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1349" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C1349" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1349" s="26"/>
       <c r="E1349" s="27" t="n">
@@ -17757,7 +17763,7 @@
     </row>
     <row r="1350" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1350" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1350" s="28" t="n">
         <v>1</v>
@@ -17782,7 +17788,7 @@
         <v>0</v>
       </c>
       <c r="B1352" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C1352" s="2"/>
       <c r="D1352" s="2"/>
@@ -17823,7 +17829,7 @@
     </row>
     <row r="1356" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1356" s="18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B1356" s="14" t="s">
         <v>10</v>
@@ -17840,7 +17846,7 @@
     </row>
     <row r="1357" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1357" s="18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B1357" s="14" t="s">
         <v>10</v>
@@ -17857,7 +17863,7 @@
     </row>
     <row r="1358" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1358" s="18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B1358" s="14" t="s">
         <v>10</v>
@@ -17903,7 +17909,7 @@
     </row>
     <row r="1362" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1362" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1362" s="22" t="s">
         <v>14</v>
@@ -17957,7 +17963,7 @@
     </row>
     <row r="1366" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1366" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1366" s="22" t="s">
         <v>44</v>
@@ -17974,7 +17980,7 @@
     </row>
     <row r="1367" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1367" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1367" s="22" t="s">
         <v>44</v>
@@ -17987,7 +17993,7 @@
     </row>
     <row r="1368" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1368" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1368" s="22" t="s">
         <v>44</v>
@@ -18000,7 +18006,7 @@
     </row>
     <row r="1369" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1369" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1369" s="22" t="s">
         <v>44</v>
@@ -18013,7 +18019,7 @@
     </row>
     <row r="1370" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1370" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1370" s="22" t="s">
         <v>44</v>
@@ -18026,7 +18032,7 @@
     </row>
     <row r="1371" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1371" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1371" s="22" t="s">
         <v>44</v>
@@ -18039,7 +18045,7 @@
     </row>
     <row r="1372" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1372" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1372" s="22" t="s">
         <v>44</v>
@@ -18052,7 +18058,7 @@
     </row>
     <row r="1373" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1373" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1373" s="5"/>
       <c r="C1373" s="19"/>
@@ -18063,13 +18069,13 @@
     </row>
     <row r="1374" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1374" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1374" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C1374" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1374" s="26"/>
       <c r="E1374" s="27" t="n">
@@ -18078,7 +18084,7 @@
     </row>
     <row r="1375" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1375" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1375" s="28" t="n">
         <v>1</v>
@@ -18110,7 +18116,7 @@
         <v>0</v>
       </c>
       <c r="B1378" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C1378" s="2"/>
       <c r="D1378" s="2"/>
@@ -18151,7 +18157,7 @@
     </row>
     <row r="1382" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1382" s="18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B1382" s="14" t="s">
         <v>29</v>
@@ -18168,7 +18174,7 @@
     </row>
     <row r="1383" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1383" s="18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B1383" s="14" t="s">
         <v>29</v>
@@ -18185,10 +18191,10 @@
     </row>
     <row r="1384" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1384" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B1384" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C1384" s="15" t="n">
         <v>120</v>
@@ -18202,10 +18208,10 @@
     </row>
     <row r="1385" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1385" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1385" s="14" t="s">
         <v>67</v>
-      </c>
-      <c r="B1385" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="C1385" s="15" t="n">
         <v>1.2</v>
@@ -18239,7 +18245,7 @@
     </row>
     <row r="1388" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1388" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1388" s="22" t="s">
         <v>14</v>
@@ -18293,7 +18299,7 @@
     </row>
     <row r="1392" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1392" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1392" s="22" t="s">
         <v>44</v>
@@ -18310,7 +18316,7 @@
     </row>
     <row r="1393" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1393" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1393" s="22" t="s">
         <v>44</v>
@@ -18323,7 +18329,7 @@
     </row>
     <row r="1394" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1394" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1394" s="22" t="s">
         <v>44</v>
@@ -18336,7 +18342,7 @@
     </row>
     <row r="1395" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1395" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1395" s="22" t="s">
         <v>44</v>
@@ -18349,7 +18355,7 @@
     </row>
     <row r="1396" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1396" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1396" s="22" t="s">
         <v>44</v>
@@ -18362,7 +18368,7 @@
     </row>
     <row r="1397" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1397" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1397" s="22" t="s">
         <v>44</v>
@@ -18375,7 +18381,7 @@
     </row>
     <row r="1398" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1398" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1398" s="22" t="s">
         <v>44</v>
@@ -18388,7 +18394,7 @@
     </row>
     <row r="1399" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1399" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1399" s="5"/>
       <c r="C1399" s="19"/>
@@ -18399,13 +18405,13 @@
     </row>
     <row r="1400" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1400" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1400" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C1400" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1400" s="26"/>
       <c r="E1400" s="27" t="n">
@@ -18414,7 +18420,7 @@
     </row>
     <row r="1401" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1401" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1401" s="28" t="n">
         <v>8</v>
@@ -18439,7 +18445,7 @@
         <v>0</v>
       </c>
       <c r="B1403" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C1403" s="2"/>
       <c r="D1403" s="2"/>
@@ -18480,10 +18486,10 @@
     </row>
     <row r="1407" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1407" s="18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B1407" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1407" s="15" t="n">
         <v>1.458</v>
@@ -18497,10 +18503,10 @@
     </row>
     <row r="1408" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1408" s="18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B1408" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1408" s="15" t="n">
         <v>0.081</v>
@@ -18514,10 +18520,10 @@
     </row>
     <row r="1409" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1409" s="18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B1409" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1409" s="15" t="n">
         <v>0.783</v>
@@ -18531,10 +18537,10 @@
     </row>
     <row r="1410" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1410" s="18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B1410" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C1410" s="15" t="n">
         <v>39.15</v>
@@ -18548,10 +18554,10 @@
     </row>
     <row r="1411" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1411" s="18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B1411" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C1411" s="15" t="n">
         <v>9.396</v>
@@ -18565,10 +18571,10 @@
     </row>
     <row r="1412" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1412" s="18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B1412" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C1412" s="15" t="n">
         <v>4.5</v>
@@ -18582,10 +18588,10 @@
     </row>
     <row r="1413" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1413" s="18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B1413" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C1413" s="15" t="n">
         <v>0.72</v>
@@ -18619,7 +18625,7 @@
     </row>
     <row r="1416" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1416" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1416" s="22" t="s">
         <v>14</v>
@@ -18665,7 +18671,7 @@
     </row>
     <row r="1420" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1420" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1420" s="22" t="s">
         <v>44</v>
@@ -18678,7 +18684,7 @@
     </row>
     <row r="1421" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1421" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1421" s="22" t="s">
         <v>44</v>
@@ -18691,7 +18697,7 @@
     </row>
     <row r="1422" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1422" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1422" s="22" t="s">
         <v>44</v>
@@ -18704,7 +18710,7 @@
     </row>
     <row r="1423" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1423" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1423" s="22" t="s">
         <v>44</v>
@@ -18717,7 +18723,7 @@
     </row>
     <row r="1424" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1424" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1424" s="22" t="s">
         <v>44</v>
@@ -18730,7 +18736,7 @@
     </row>
     <row r="1425" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1425" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1425" s="22" t="s">
         <v>44</v>
@@ -18743,7 +18749,7 @@
     </row>
     <row r="1426" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1426" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1426" s="22" t="s">
         <v>44</v>
@@ -18756,7 +18762,7 @@
     </row>
     <row r="1427" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1427" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1427" s="5"/>
       <c r="C1427" s="19"/>
@@ -18767,13 +18773,13 @@
     </row>
     <row r="1428" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1428" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1428" s="25" t="n">
         <v>1</v>
       </c>
       <c r="C1428" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1428" s="26"/>
       <c r="E1428" s="27" t="n">
@@ -18782,7 +18788,7 @@
     </row>
     <row r="1429" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1429" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1429" s="28" t="n">
         <v>2</v>
@@ -18814,7 +18820,7 @@
         <v>0</v>
       </c>
       <c r="B1432" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C1432" s="2"/>
       <c r="D1432" s="2"/>
@@ -18942,7 +18948,7 @@
     </row>
     <row r="1445" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1445" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1445" s="22" t="s">
         <v>14</v>
@@ -18996,7 +19002,7 @@
     </row>
     <row r="1449" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1449" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1449" s="22" t="s">
         <v>44</v>
@@ -19013,7 +19019,7 @@
     </row>
     <row r="1450" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1450" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1450" s="22" t="s">
         <v>44</v>
@@ -19026,7 +19032,7 @@
     </row>
     <row r="1451" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1451" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1451" s="22" t="s">
         <v>44</v>
@@ -19039,7 +19045,7 @@
     </row>
     <row r="1452" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1452" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1452" s="22" t="s">
         <v>44</v>
@@ -19052,7 +19058,7 @@
     </row>
     <row r="1453" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1453" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1453" s="22" t="s">
         <v>44</v>
@@ -19065,7 +19071,7 @@
     </row>
     <row r="1454" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1454" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1454" s="22" t="s">
         <v>44</v>
@@ -19078,7 +19084,7 @@
     </row>
     <row r="1455" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1455" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1455" s="22" t="s">
         <v>44</v>
@@ -19091,7 +19097,7 @@
     </row>
     <row r="1456" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1456" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1456" s="5"/>
       <c r="C1456" s="19"/>
@@ -19102,13 +19108,13 @@
     </row>
     <row r="1457" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1457" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1457" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C1457" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1457" s="26"/>
       <c r="E1457" s="27" t="n">
@@ -19117,7 +19123,7 @@
     </row>
     <row r="1458" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1458" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1458" s="28" t="n">
         <v>32.8</v>
@@ -19149,7 +19155,7 @@
         <v>0</v>
       </c>
       <c r="B1461" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C1461" s="2"/>
       <c r="D1461" s="2"/>
@@ -19277,7 +19283,7 @@
     </row>
     <row r="1474" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1474" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1474" s="22" t="s">
         <v>14</v>
@@ -19327,7 +19333,7 @@
     </row>
     <row r="1478" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1478" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1478" s="22" t="s">
         <v>44</v>
@@ -19344,7 +19350,7 @@
     </row>
     <row r="1479" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1479" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1479" s="22" t="s">
         <v>44</v>
@@ -19357,7 +19363,7 @@
     </row>
     <row r="1480" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1480" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1480" s="22" t="s">
         <v>44</v>
@@ -19370,7 +19376,7 @@
     </row>
     <row r="1481" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1481" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1481" s="22" t="s">
         <v>44</v>
@@ -19383,7 +19389,7 @@
     </row>
     <row r="1482" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1482" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1482" s="22" t="s">
         <v>44</v>
@@ -19396,7 +19402,7 @@
     </row>
     <row r="1483" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1483" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1483" s="22" t="s">
         <v>44</v>
@@ -19409,7 +19415,7 @@
     </row>
     <row r="1484" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1484" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1484" s="22" t="s">
         <v>44</v>
@@ -19422,7 +19428,7 @@
     </row>
     <row r="1485" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1485" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1485" s="5"/>
       <c r="C1485" s="19"/>
@@ -19433,13 +19439,13 @@
     </row>
     <row r="1486" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1486" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1486" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C1486" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1486" s="26"/>
       <c r="E1486" s="27" t="n">
@@ -19448,7 +19454,7 @@
     </row>
     <row r="1487" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1487" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1487" s="28" t="n">
         <v>15.6</v>
@@ -19473,7 +19479,7 @@
         <v>0</v>
       </c>
       <c r="B1489" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C1489" s="2"/>
       <c r="D1489" s="2"/>
@@ -19514,7 +19520,7 @@
     </row>
     <row r="1493" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1493" s="18" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B1493" s="14" t="s">
         <v>10</v>
@@ -19531,10 +19537,10 @@
     </row>
     <row r="1494" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1494" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1494" s="14" t="s">
         <v>67</v>
-      </c>
-      <c r="B1494" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="C1494" s="15" t="n">
         <v>2.7456</v>
@@ -19548,10 +19554,10 @@
     </row>
     <row r="1495" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1495" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B1495" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C1495" s="15" t="n">
         <v>823.68</v>
@@ -19621,7 +19627,7 @@
     </row>
     <row r="1502" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1502" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1502" s="22" t="s">
         <v>14</v>
@@ -19675,7 +19681,7 @@
     </row>
     <row r="1506" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1506" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1506" s="22" t="s">
         <v>44</v>
@@ -19692,7 +19698,7 @@
     </row>
     <row r="1507" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1507" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1507" s="22" t="s">
         <v>44</v>
@@ -19705,7 +19711,7 @@
     </row>
     <row r="1508" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1508" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1508" s="22" t="s">
         <v>44</v>
@@ -19718,7 +19724,7 @@
     </row>
     <row r="1509" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1509" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1509" s="22" t="s">
         <v>44</v>
@@ -19731,7 +19737,7 @@
     </row>
     <row r="1510" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1510" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1510" s="22" t="s">
         <v>44</v>
@@ -19744,7 +19750,7 @@
     </row>
     <row r="1511" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1511" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1511" s="22" t="s">
         <v>44</v>
@@ -19757,7 +19763,7 @@
     </row>
     <row r="1512" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1512" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1512" s="22" t="s">
         <v>44</v>
@@ -19770,7 +19776,7 @@
     </row>
     <row r="1513" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1513" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1513" s="5"/>
       <c r="C1513" s="19"/>
@@ -19781,13 +19787,13 @@
     </row>
     <row r="1514" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1514" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1514" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C1514" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1514" s="26"/>
       <c r="E1514" s="27" t="n">
@@ -19796,7 +19802,7 @@
     </row>
     <row r="1515" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1515" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1515" s="28" t="n">
         <v>9.152</v>
@@ -19828,7 +19834,7 @@
         <v>0</v>
       </c>
       <c r="B1518" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C1518" s="2"/>
       <c r="D1518" s="2"/>
@@ -19956,7 +19962,7 @@
     </row>
     <row r="1531" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1531" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1531" s="22" t="s">
         <v>14</v>
@@ -20006,7 +20012,7 @@
     </row>
     <row r="1535" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1535" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1535" s="22" t="s">
         <v>44</v>
@@ -20023,7 +20029,7 @@
     </row>
     <row r="1536" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1536" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1536" s="22" t="s">
         <v>44</v>
@@ -20036,7 +20042,7 @@
     </row>
     <row r="1537" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1537" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1537" s="22" t="s">
         <v>44</v>
@@ -20049,7 +20055,7 @@
     </row>
     <row r="1538" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1538" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1538" s="22" t="s">
         <v>44</v>
@@ -20062,7 +20068,7 @@
     </row>
     <row r="1539" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1539" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1539" s="22" t="s">
         <v>44</v>
@@ -20075,7 +20081,7 @@
     </row>
     <row r="1540" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1540" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1540" s="22" t="s">
         <v>44</v>
@@ -20088,7 +20094,7 @@
     </row>
     <row r="1541" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1541" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1541" s="22" t="s">
         <v>44</v>
@@ -20101,7 +20107,7 @@
     </row>
     <row r="1542" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1542" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1542" s="5"/>
       <c r="C1542" s="19"/>
@@ -20112,13 +20118,13 @@
     </row>
     <row r="1543" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1543" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1543" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C1543" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1543" s="26"/>
       <c r="E1543" s="27" t="n">
@@ -20127,7 +20133,7 @@
     </row>
     <row r="1544" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1544" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1544" s="28" t="n">
         <v>6</v>
@@ -20152,7 +20158,7 @@
         <v>0</v>
       </c>
       <c r="B1546" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C1546" s="2"/>
       <c r="D1546" s="2"/>
@@ -20280,7 +20286,7 @@
     </row>
     <row r="1559" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1559" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1559" s="22" t="s">
         <v>14</v>
@@ -20334,7 +20340,7 @@
     </row>
     <row r="1563" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1563" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1563" s="22" t="s">
         <v>44</v>
@@ -20351,7 +20357,7 @@
     </row>
     <row r="1564" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1564" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1564" s="22" t="s">
         <v>44</v>
@@ -20364,7 +20370,7 @@
     </row>
     <row r="1565" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1565" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1565" s="22" t="s">
         <v>44</v>
@@ -20377,7 +20383,7 @@
     </row>
     <row r="1566" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1566" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1566" s="22" t="s">
         <v>44</v>
@@ -20390,7 +20396,7 @@
     </row>
     <row r="1567" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1567" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1567" s="22" t="s">
         <v>44</v>
@@ -20403,7 +20409,7 @@
     </row>
     <row r="1568" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1568" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1568" s="22" t="s">
         <v>44</v>
@@ -20416,7 +20422,7 @@
     </row>
     <row r="1569" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1569" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1569" s="22" t="s">
         <v>44</v>
@@ -20429,7 +20435,7 @@
     </row>
     <row r="1570" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1570" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1570" s="5"/>
       <c r="C1570" s="19"/>
@@ -20440,13 +20446,13 @@
     </row>
     <row r="1571" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1571" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1571" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C1571" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1571" s="26"/>
       <c r="E1571" s="27" t="n">
@@ -20455,7 +20461,7 @@
     </row>
     <row r="1572" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1572" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1572" s="28" t="n">
         <v>19.04</v>
@@ -20494,7 +20500,7 @@
         <v>0</v>
       </c>
       <c r="B1576" s="33" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C1576" s="33"/>
       <c r="D1576" s="33"/>
@@ -20535,10 +20541,10 @@
     </row>
     <row r="1580" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1580" s="18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B1580" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1580" s="15" t="n">
         <v>24.752</v>
@@ -20552,10 +20558,10 @@
     </row>
     <row r="1581" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1581" s="18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B1581" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1581" s="15" t="n">
         <v>0.352</v>
@@ -20569,10 +20575,10 @@
     </row>
     <row r="1582" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1582" s="18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B1582" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1582" s="15" t="n">
         <v>9.152</v>
@@ -20586,10 +20592,10 @@
     </row>
     <row r="1583" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1583" s="18" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B1583" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1583" s="15" t="n">
         <v>15.6</v>
@@ -20603,10 +20609,10 @@
     </row>
     <row r="1584" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1584" s="18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B1584" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1584" s="15" t="n">
         <v>0.3</v>
@@ -20620,10 +20626,10 @@
     </row>
     <row r="1585" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1585" s="18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B1585" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C1585" s="15" t="n">
         <v>15</v>
@@ -20637,10 +20643,10 @@
     </row>
     <row r="1586" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1586" s="18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B1586" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C1586" s="15" t="n">
         <v>3.6</v>
@@ -20654,10 +20660,10 @@
     </row>
     <row r="1587" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1587" s="18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B1587" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C1587" s="15" t="n">
         <v>65.6</v>
@@ -20671,7 +20677,7 @@
     </row>
     <row r="1588" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1588" s="18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B1588" s="14" t="s">
         <v>29</v>
@@ -20688,7 +20694,7 @@
     </row>
     <row r="1589" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1589" s="18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B1589" s="14" t="s">
         <v>29</v>
@@ -20734,7 +20740,7 @@
     </row>
     <row r="1593" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1593" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1593" s="22" t="s">
         <v>14</v>
@@ -20780,7 +20786,7 @@
     </row>
     <row r="1597" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1597" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1597" s="22" t="s">
         <v>44</v>
@@ -20793,7 +20799,7 @@
     </row>
     <row r="1598" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1598" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1598" s="22" t="s">
         <v>44</v>
@@ -20806,7 +20812,7 @@
     </row>
     <row r="1599" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1599" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1599" s="22" t="s">
         <v>44</v>
@@ -20819,7 +20825,7 @@
     </row>
     <row r="1600" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1600" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1600" s="22" t="s">
         <v>44</v>
@@ -20832,7 +20838,7 @@
     </row>
     <row r="1601" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1601" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1601" s="22" t="s">
         <v>44</v>
@@ -20845,7 +20851,7 @@
     </row>
     <row r="1602" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1602" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1602" s="22" t="s">
         <v>44</v>
@@ -20858,7 +20864,7 @@
     </row>
     <row r="1603" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1603" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1603" s="22" t="s">
         <v>44</v>
@@ -20871,7 +20877,7 @@
     </row>
     <row r="1604" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1604" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1604" s="5"/>
       <c r="C1604" s="19"/>
@@ -20882,13 +20888,13 @@
     </row>
     <row r="1605" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1605" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1605" s="25" t="n">
         <v>1</v>
       </c>
       <c r="C1605" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1605" s="26"/>
       <c r="E1605" s="27" t="n">
@@ -20897,7 +20903,7 @@
     </row>
     <row r="1606" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1606" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1606" s="28" t="n">
         <v>1</v>
@@ -20922,7 +20928,7 @@
         <v>0</v>
       </c>
       <c r="B1608" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C1608" s="2"/>
       <c r="D1608" s="2"/>
@@ -21041,7 +21047,7 @@
     </row>
     <row r="1620" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1620" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1620" s="22" t="s">
         <v>14</v>
@@ -21095,7 +21101,7 @@
     </row>
     <row r="1624" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1624" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1624" s="22" t="s">
         <v>44</v>
@@ -21112,7 +21118,7 @@
     </row>
     <row r="1625" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1625" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1625" s="22" t="s">
         <v>44</v>
@@ -21125,7 +21131,7 @@
     </row>
     <row r="1626" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1626" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1626" s="22" t="s">
         <v>44</v>
@@ -21138,7 +21144,7 @@
     </row>
     <row r="1627" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1627" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1627" s="22" t="s">
         <v>44</v>
@@ -21151,7 +21157,7 @@
     </row>
     <row r="1628" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1628" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1628" s="22" t="s">
         <v>44</v>
@@ -21164,7 +21170,7 @@
     </row>
     <row r="1629" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1629" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1629" s="22" t="s">
         <v>44</v>
@@ -21177,7 +21183,7 @@
     </row>
     <row r="1630" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1630" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1630" s="22" t="s">
         <v>44</v>
@@ -21194,7 +21200,7 @@
     </row>
     <row r="1631" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1631" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1631" s="5"/>
       <c r="C1631" s="19"/>
@@ -21205,13 +21211,13 @@
     </row>
     <row r="1632" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1632" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1632" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C1632" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1632" s="26"/>
       <c r="E1632" s="27" t="n">
@@ -21220,7 +21226,7 @@
     </row>
     <row r="1633" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1633" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1633" s="28" t="n">
         <v>1</v>
@@ -21245,7 +21251,7 @@
         <v>0</v>
       </c>
       <c r="B1635" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C1635" s="2"/>
       <c r="D1635" s="2"/>
@@ -21378,7 +21384,7 @@
     </row>
     <row r="1649" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1649" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1649" s="22" t="s">
         <v>14</v>
@@ -21432,7 +21438,7 @@
     </row>
     <row r="1653" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1653" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1653" s="22" t="s">
         <v>44</v>
@@ -21449,7 +21455,7 @@
     </row>
     <row r="1654" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1654" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1654" s="22" t="s">
         <v>44</v>
@@ -21462,7 +21468,7 @@
     </row>
     <row r="1655" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1655" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1655" s="22" t="s">
         <v>44</v>
@@ -21475,7 +21481,7 @@
     </row>
     <row r="1656" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1656" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1656" s="22" t="s">
         <v>44</v>
@@ -21488,7 +21494,7 @@
     </row>
     <row r="1657" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1657" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1657" s="22" t="s">
         <v>44</v>
@@ -21501,7 +21507,7 @@
     </row>
     <row r="1658" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1658" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1658" s="22" t="s">
         <v>44</v>
@@ -21514,7 +21520,7 @@
     </row>
     <row r="1659" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1659" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1659" s="22" t="s">
         <v>44</v>
@@ -21527,7 +21533,7 @@
     </row>
     <row r="1660" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1660" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1660" s="5"/>
       <c r="C1660" s="19"/>
@@ -21538,13 +21544,13 @@
     </row>
     <row r="1661" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1661" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1661" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C1661" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1661" s="26"/>
       <c r="E1661" s="27" t="n">
@@ -21553,7 +21559,7 @@
     </row>
     <row r="1662" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1662" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1662" s="28" t="n">
         <v>38.85</v>
@@ -21578,7 +21584,7 @@
         <v>0</v>
       </c>
       <c r="B1664" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C1664" s="2"/>
       <c r="D1664" s="2"/>
@@ -21619,10 +21625,10 @@
     </row>
     <row r="1668" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1668" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B1668" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C1668" s="15" t="n">
         <v>32</v>
@@ -21636,10 +21642,10 @@
     </row>
     <row r="1669" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1669" s="18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B1669" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C1669" s="15" t="n">
         <v>128</v>
@@ -21653,10 +21659,10 @@
     </row>
     <row r="1670" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1670" s="18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B1670" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C1670" s="15" t="n">
         <v>32</v>
@@ -21735,7 +21741,7 @@
     </row>
     <row r="1678" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1678" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1678" s="22" t="s">
         <v>14</v>
@@ -21789,7 +21795,7 @@
     </row>
     <row r="1682" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1682" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1682" s="22" t="s">
         <v>44</v>
@@ -21806,7 +21812,7 @@
     </row>
     <row r="1683" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1683" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1683" s="22" t="s">
         <v>44</v>
@@ -21819,7 +21825,7 @@
     </row>
     <row r="1684" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1684" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1684" s="22" t="s">
         <v>44</v>
@@ -21832,7 +21838,7 @@
     </row>
     <row r="1685" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1685" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1685" s="22" t="s">
         <v>44</v>
@@ -21845,7 +21851,7 @@
     </row>
     <row r="1686" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1686" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1686" s="22" t="s">
         <v>44</v>
@@ -21858,7 +21864,7 @@
     </row>
     <row r="1687" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1687" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1687" s="22" t="s">
         <v>44</v>
@@ -21871,7 +21877,7 @@
     </row>
     <row r="1688" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1688" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1688" s="22" t="s">
         <v>44</v>
@@ -21884,7 +21890,7 @@
     </row>
     <row r="1689" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1689" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1689" s="5"/>
       <c r="C1689" s="19"/>
@@ -21895,13 +21901,13 @@
     </row>
     <row r="1690" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1690" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1690" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C1690" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1690" s="26"/>
       <c r="E1690" s="27" t="n">
@@ -21910,7 +21916,7 @@
     </row>
     <row r="1691" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1691" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1691" s="28" t="n">
         <v>32</v>
@@ -21935,7 +21941,7 @@
         <v>0</v>
       </c>
       <c r="B1693" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C1693" s="2"/>
       <c r="D1693" s="2"/>
@@ -21976,7 +21982,7 @@
     </row>
     <row r="1697" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1697" s="18" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B1697" s="14" t="s">
         <v>10</v>
@@ -21993,10 +21999,10 @@
     </row>
     <row r="1698" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1698" s="18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B1698" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C1698" s="15" t="n">
         <v>1</v>
@@ -22010,7 +22016,7 @@
     </row>
     <row r="1699" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1699" s="18" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B1699" s="14" t="s">
         <v>12</v>
@@ -22027,7 +22033,7 @@
     </row>
     <row r="1700" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1700" s="18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B1700" s="14" t="s">
         <v>12</v>
@@ -22100,7 +22106,7 @@
     </row>
     <row r="1707" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1707" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1707" s="22" t="s">
         <v>14</v>
@@ -22154,7 +22160,7 @@
     </row>
     <row r="1711" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1711" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1711" s="22" t="s">
         <v>44</v>
@@ -22171,7 +22177,7 @@
     </row>
     <row r="1712" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1712" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1712" s="22" t="s">
         <v>44</v>
@@ -22184,7 +22190,7 @@
     </row>
     <row r="1713" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1713" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1713" s="22" t="s">
         <v>44</v>
@@ -22197,7 +22203,7 @@
     </row>
     <row r="1714" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1714" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1714" s="22" t="s">
         <v>44</v>
@@ -22210,7 +22216,7 @@
     </row>
     <row r="1715" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1715" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1715" s="22" t="s">
         <v>44</v>
@@ -22223,7 +22229,7 @@
     </row>
     <row r="1716" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1716" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1716" s="22" t="s">
         <v>44</v>
@@ -22236,7 +22242,7 @@
     </row>
     <row r="1717" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1717" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1717" s="22" t="s">
         <v>44</v>
@@ -22249,7 +22255,7 @@
     </row>
     <row r="1718" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1718" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1718" s="5"/>
       <c r="C1718" s="19"/>
@@ -22260,13 +22266,13 @@
     </row>
     <row r="1719" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1719" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1719" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C1719" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1719" s="26"/>
       <c r="E1719" s="27" t="n">
@@ -22275,7 +22281,7 @@
     </row>
     <row r="1720" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1720" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1720" s="28" t="n">
         <v>20</v>
@@ -22307,7 +22313,7 @@
         <v>0</v>
       </c>
       <c r="B1723" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C1723" s="2"/>
       <c r="D1723" s="2"/>
@@ -22348,10 +22354,10 @@
     </row>
     <row r="1727" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1727" s="18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B1727" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1727" s="15" t="n">
         <v>1.2</v>
@@ -22365,10 +22371,10 @@
     </row>
     <row r="1728" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1728" s="18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B1728" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C1728" s="15" t="n">
         <v>12</v>
@@ -22456,7 +22462,7 @@
     </row>
     <row r="1737" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1737" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1737" s="22" t="s">
         <v>14</v>
@@ -22502,7 +22508,7 @@
     </row>
     <row r="1741" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1741" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1741" s="22" t="s">
         <v>44</v>
@@ -22515,7 +22521,7 @@
     </row>
     <row r="1742" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1742" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1742" s="22" t="s">
         <v>44</v>
@@ -22528,7 +22534,7 @@
     </row>
     <row r="1743" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1743" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1743" s="22" t="s">
         <v>44</v>
@@ -22541,7 +22547,7 @@
     </row>
     <row r="1744" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1744" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1744" s="22" t="s">
         <v>44</v>
@@ -22554,7 +22560,7 @@
     </row>
     <row r="1745" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1745" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1745" s="22" t="s">
         <v>44</v>
@@ -22567,7 +22573,7 @@
     </row>
     <row r="1746" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1746" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1746" s="22" t="s">
         <v>44</v>
@@ -22580,7 +22586,7 @@
     </row>
     <row r="1747" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1747" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1747" s="22" t="s">
         <v>44</v>
@@ -22593,7 +22599,7 @@
     </row>
     <row r="1748" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1748" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1748" s="5"/>
       <c r="C1748" s="19"/>
@@ -22604,13 +22610,13 @@
     </row>
     <row r="1749" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1749" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1749" s="25" t="n">
         <v>1</v>
       </c>
       <c r="C1749" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1749" s="26"/>
       <c r="E1749" s="27" t="n">
@@ -22619,7 +22625,7 @@
     </row>
     <row r="1750" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1750" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1750" s="28" t="n">
         <v>12</v>
@@ -22644,7 +22650,7 @@
         <v>0</v>
       </c>
       <c r="B1752" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C1752" s="2"/>
       <c r="D1752" s="2"/>
@@ -22685,10 +22691,10 @@
     </row>
     <row r="1756" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1756" s="18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B1756" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1756" s="15" t="n">
         <v>0.144</v>
@@ -22702,10 +22708,10 @@
     </row>
     <row r="1757" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1757" s="18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B1757" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1757" s="15" t="n">
         <v>0.018</v>
@@ -22719,10 +22725,10 @@
     </row>
     <row r="1758" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1758" s="18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B1758" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1758" s="15" t="n">
         <v>0.144</v>
@@ -22736,10 +22742,10 @@
     </row>
     <row r="1759" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1759" s="18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B1759" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C1759" s="15" t="n">
         <v>7.2</v>
@@ -22753,10 +22759,10 @@
     </row>
     <row r="1760" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1760" s="18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B1760" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C1760" s="15" t="n">
         <v>0.864</v>
@@ -22770,10 +22776,10 @@
     </row>
     <row r="1761" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1761" s="18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B1761" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C1761" s="15" t="n">
         <v>1.61</v>
@@ -22787,10 +22793,10 @@
     </row>
     <row r="1762" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1762" s="18" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B1762" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C1762" s="15" t="n">
         <v>1.61</v>
@@ -22833,7 +22839,7 @@
     </row>
     <row r="1766" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1766" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1766" s="22" t="s">
         <v>14</v>
@@ -22879,7 +22885,7 @@
     </row>
     <row r="1770" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1770" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1770" s="22" t="s">
         <v>44</v>
@@ -22892,7 +22898,7 @@
     </row>
     <row r="1771" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1771" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1771" s="22" t="s">
         <v>44</v>
@@ -22905,7 +22911,7 @@
     </row>
     <row r="1772" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1772" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1772" s="22" t="s">
         <v>44</v>
@@ -22918,7 +22924,7 @@
     </row>
     <row r="1773" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1773" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1773" s="22" t="s">
         <v>44</v>
@@ -22931,7 +22937,7 @@
     </row>
     <row r="1774" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1774" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1774" s="22" t="s">
         <v>44</v>
@@ -22944,7 +22950,7 @@
     </row>
     <row r="1775" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1775" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1775" s="22" t="s">
         <v>44</v>
@@ -22957,7 +22963,7 @@
     </row>
     <row r="1776" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1776" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1776" s="22" t="s">
         <v>44</v>
@@ -22970,7 +22976,7 @@
     </row>
     <row r="1777" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1777" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1777" s="5"/>
       <c r="C1777" s="19"/>
@@ -22981,13 +22987,13 @@
     </row>
     <row r="1778" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1778" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1778" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C1778" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1778" s="26"/>
       <c r="E1778" s="27" t="n">
@@ -22996,7 +23002,7 @@
     </row>
     <row r="1779" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1779" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1779" s="28" t="n">
         <v>1</v>
@@ -23021,7 +23027,7 @@
         <v>0</v>
       </c>
       <c r="B1781" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C1781" s="2"/>
       <c r="D1781" s="2"/>
@@ -23062,7 +23068,7 @@
     </row>
     <row r="1785" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1785" s="18" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B1785" s="14" t="s">
         <v>10</v>
@@ -23079,7 +23085,7 @@
     </row>
     <row r="1786" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1786" s="18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B1786" s="14" t="s">
         <v>12</v>
@@ -23096,10 +23102,10 @@
     </row>
     <row r="1787" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1787" s="18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B1787" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C1787" s="15" t="n">
         <v>2</v>
@@ -23113,10 +23119,10 @@
     </row>
     <row r="1788" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1788" s="18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B1788" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C1788" s="15" t="n">
         <v>2</v>
@@ -23130,7 +23136,7 @@
     </row>
     <row r="1789" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1789" s="18" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B1789" s="14" t="s">
         <v>12</v>
@@ -23147,7 +23153,7 @@
     </row>
     <row r="1790" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1790" s="18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B1790" s="14" t="s">
         <v>12</v>
@@ -23211,7 +23217,7 @@
     </row>
     <row r="1796" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1796" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1796" s="22" t="s">
         <v>14</v>
@@ -23265,7 +23271,7 @@
     </row>
     <row r="1800" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1800" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1800" s="22" t="s">
         <v>44</v>
@@ -23282,7 +23288,7 @@
     </row>
     <row r="1801" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1801" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1801" s="22" t="s">
         <v>44</v>
@@ -23295,7 +23301,7 @@
     </row>
     <row r="1802" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1802" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1802" s="22" t="s">
         <v>44</v>
@@ -23308,7 +23314,7 @@
     </row>
     <row r="1803" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1803" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1803" s="22" t="s">
         <v>44</v>
@@ -23321,7 +23327,7 @@
     </row>
     <row r="1804" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1804" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1804" s="22" t="s">
         <v>44</v>
@@ -23334,7 +23340,7 @@
     </row>
     <row r="1805" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1805" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1805" s="22" t="s">
         <v>44</v>
@@ -23347,7 +23353,7 @@
     </row>
     <row r="1806" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1806" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1806" s="22" t="s">
         <v>44</v>
@@ -23360,7 +23366,7 @@
     </row>
     <row r="1807" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1807" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1807" s="5"/>
       <c r="C1807" s="19"/>
@@ -23371,13 +23377,13 @@
     </row>
     <row r="1808" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1808" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1808" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C1808" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1808" s="26"/>
       <c r="E1808" s="27" t="n">
@@ -23386,7 +23392,7 @@
     </row>
     <row r="1809" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1809" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1809" s="28" t="n">
         <v>4</v>
@@ -23411,7 +23417,7 @@
         <v>0</v>
       </c>
       <c r="B1811" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C1811" s="2"/>
       <c r="D1811" s="2"/>
@@ -23452,7 +23458,7 @@
     </row>
     <row r="1815" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1815" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B1815" s="14" t="s">
         <v>10</v>
@@ -23469,7 +23475,7 @@
     </row>
     <row r="1816" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1816" s="18" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B1816" s="14" t="s">
         <v>12</v>
@@ -23486,7 +23492,7 @@
     </row>
     <row r="1817" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1817" s="18" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B1817" s="14" t="s">
         <v>12</v>
@@ -23503,7 +23509,7 @@
     </row>
     <row r="1818" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1818" s="18" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B1818" s="14" t="s">
         <v>12</v>
@@ -23520,10 +23526,10 @@
     </row>
     <row r="1819" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1819" s="18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B1819" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C1819" s="15" t="n">
         <v>3</v>
@@ -23537,10 +23543,10 @@
     </row>
     <row r="1820" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1820" s="18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B1820" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C1820" s="15" t="n">
         <v>3</v>
@@ -23554,7 +23560,7 @@
     </row>
     <row r="1821" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1821" s="18" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B1821" s="14" t="s">
         <v>12</v>
@@ -23617,7 +23623,7 @@
     </row>
     <row r="1826" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1826" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1826" s="22" t="s">
         <v>14</v>
@@ -23671,7 +23677,7 @@
     </row>
     <row r="1830" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1830" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1830" s="22" t="s">
         <v>44</v>
@@ -23688,7 +23694,7 @@
     </row>
     <row r="1831" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1831" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1831" s="22" t="s">
         <v>44</v>
@@ -23701,7 +23707,7 @@
     </row>
     <row r="1832" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1832" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1832" s="22" t="s">
         <v>44</v>
@@ -23714,7 +23720,7 @@
     </row>
     <row r="1833" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1833" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1833" s="22" t="s">
         <v>44</v>
@@ -23727,7 +23733,7 @@
     </row>
     <row r="1834" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1834" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1834" s="22" t="s">
         <v>44</v>
@@ -23740,7 +23746,7 @@
     </row>
     <row r="1835" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1835" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1835" s="22" t="s">
         <v>44</v>
@@ -23753,7 +23759,7 @@
     </row>
     <row r="1836" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1836" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1836" s="22" t="s">
         <v>44</v>
@@ -23766,7 +23772,7 @@
     </row>
     <row r="1837" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1837" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1837" s="5"/>
       <c r="C1837" s="19"/>
@@ -23777,13 +23783,13 @@
     </row>
     <row r="1838" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1838" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1838" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C1838" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1838" s="26"/>
       <c r="E1838" s="27" t="n">
@@ -23792,7 +23798,7 @@
     </row>
     <row r="1839" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1839" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1839" s="28" t="n">
         <v>1</v>
@@ -23817,7 +23823,7 @@
         <v>0</v>
       </c>
       <c r="B1841" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C1841" s="2"/>
       <c r="D1841" s="2"/>
@@ -23858,7 +23864,7 @@
     </row>
     <row r="1845" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1845" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B1845" s="14" t="s">
         <v>10</v>
@@ -23875,7 +23881,7 @@
     </row>
     <row r="1846" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1846" s="18" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B1846" s="14" t="s">
         <v>12</v>
@@ -23892,10 +23898,10 @@
     </row>
     <row r="1847" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1847" s="18" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B1847" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C1847" s="15" t="n">
         <v>21.76</v>
@@ -23912,7 +23918,7 @@
         <v>13</v>
       </c>
       <c r="B1848" s="14" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C1848" s="15" t="n">
         <v>1</v>
@@ -23964,7 +23970,7 @@
     </row>
     <row r="1853" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1853" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1853" s="22" t="s">
         <v>14</v>
@@ -24018,7 +24024,7 @@
     </row>
     <row r="1857" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1857" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1857" s="22" t="s">
         <v>44</v>
@@ -24035,7 +24041,7 @@
     </row>
     <row r="1858" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1858" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1858" s="22" t="s">
         <v>44</v>
@@ -24048,7 +24054,7 @@
     </row>
     <row r="1859" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1859" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1859" s="22" t="s">
         <v>44</v>
@@ -24061,7 +24067,7 @@
     </row>
     <row r="1860" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1860" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1860" s="22" t="s">
         <v>44</v>
@@ -24074,7 +24080,7 @@
     </row>
     <row r="1861" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1861" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1861" s="22" t="s">
         <v>44</v>
@@ -24087,7 +24093,7 @@
     </row>
     <row r="1862" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1862" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1862" s="22" t="s">
         <v>44</v>
@@ -24100,7 +24106,7 @@
     </row>
     <row r="1863" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1863" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1863" s="22" t="s">
         <v>44</v>
@@ -24117,7 +24123,7 @@
     </row>
     <row r="1864" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1864" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1864" s="5"/>
       <c r="C1864" s="19"/>
@@ -24128,13 +24134,13 @@
     </row>
     <row r="1865" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1865" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1865" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C1865" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1865" s="26"/>
       <c r="E1865" s="27" t="n">
@@ -24143,7 +24149,7 @@
     </row>
     <row r="1866" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1866" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1866" s="28" t="n">
         <v>1</v>
@@ -24168,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="B1868" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C1868" s="2"/>
       <c r="D1868" s="2"/>
@@ -24209,10 +24215,10 @@
     </row>
     <row r="1872" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1872" s="18" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B1872" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1872" s="15" t="n">
         <v>1.5</v>
@@ -24295,7 +24301,7 @@
     </row>
     <row r="1880" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1880" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1880" s="22" t="s">
         <v>14</v>
@@ -24341,7 +24347,7 @@
     </row>
     <row r="1884" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1884" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1884" s="22" t="s">
         <v>44</v>
@@ -24354,7 +24360,7 @@
     </row>
     <row r="1885" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1885" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1885" s="22" t="s">
         <v>44</v>
@@ -24367,7 +24373,7 @@
     </row>
     <row r="1886" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1886" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1886" s="22" t="s">
         <v>44</v>
@@ -24380,7 +24386,7 @@
     </row>
     <row r="1887" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1887" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1887" s="22" t="s">
         <v>44</v>
@@ -24393,7 +24399,7 @@
     </row>
     <row r="1888" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1888" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1888" s="22" t="s">
         <v>44</v>
@@ -24406,7 +24412,7 @@
     </row>
     <row r="1889" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1889" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1889" s="22" t="s">
         <v>44</v>
@@ -24419,7 +24425,7 @@
     </row>
     <row r="1890" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1890" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1890" s="22" t="s">
         <v>44</v>
@@ -24432,7 +24438,7 @@
     </row>
     <row r="1891" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1891" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1891" s="5"/>
       <c r="C1891" s="19"/>
@@ -24443,13 +24449,13 @@
     </row>
     <row r="1892" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1892" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1892" s="25" t="n">
         <v>1.2</v>
       </c>
       <c r="C1892" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1892" s="26"/>
       <c r="E1892" s="27" t="n">
@@ -24458,7 +24464,7 @@
     </row>
     <row r="1893" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1893" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1893" s="28" t="n">
         <v>15</v>
